--- a/export-data/A1B1_DATA.xlsx
+++ b/export-data/A1B1_DATA.xlsx
@@ -178,9 +178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>779145</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>680085</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -198,7 +198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15897225" y="4953000"/>
-          <a:ext cx="3227070" cy="2590800"/>
+          <a:ext cx="3128010" cy="2164080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -495,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L333"/>
+  <dimension ref="A1:L313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,31 +558,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>69.36842105263158</v>
+        <v>63.28571428571428</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>63.25</v>
+        <v>63.52542372881356</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F2">
-        <v>8.07</v>
+        <v>4.95</v>
       </c>
       <c r="G2">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>5.52</v>
+        <v>5.88</v>
       </c>
       <c r="I2">
-        <v>1896.313452380953</v>
+        <v>2064.129682539683</v>
       </c>
       <c r="J2">
-        <v>1667.682976190476</v>
+        <v>1758.553253968254</v>
+      </c>
+      <c r="K2">
+        <v>856.1755151515151</v>
+      </c>
+      <c r="L2">
+        <v>918.2498181818181</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -590,25 +596,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>69.07894736842105</v>
+        <v>63.14285714285715</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>63.41666666666666</v>
+        <v>63.4406779661017</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F3">
-        <v>7.94</v>
+        <v>4.84</v>
       </c>
       <c r="G3">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H3">
-        <v>5.49</v>
+        <v>5.89</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
@@ -628,31 +634,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68.61842105263158</v>
+        <v>63.01785714285715</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>63.41666666666666</v>
+        <v>63.3728813559322</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F4">
-        <v>7.83</v>
+        <v>4.71</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>5.45</v>
+        <v>5.86</v>
       </c>
       <c r="I4">
         <v>100</v>
       </c>
       <c r="J4">
-        <v>8.73</v>
+        <v>91.22</v>
+      </c>
+      <c r="K4">
+        <v>21.24</v>
+      </c>
+      <c r="L4">
+        <v>26.58</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -660,25 +672,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68.32894736842105</v>
+        <v>62.82142857142857</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>63.52777777777778</v>
+        <v>63.32203389830509</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>7.73</v>
+        <v>4.57</v>
       </c>
       <c r="G5">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>5.41</v>
+        <v>5.82</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>16</v>
@@ -698,31 +710,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>68.10526315789474</v>
+        <v>62.46428571428572</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>63.63888888888889</v>
+        <v>63.23728813559322</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>7.61</v>
+        <v>4.43</v>
       </c>
       <c r="G6">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>5.35</v>
+        <v>5.77</v>
       </c>
       <c r="I6">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="J6">
-        <v>287</v>
+        <v>262</v>
+      </c>
+      <c r="K6">
+        <v>41</v>
+      </c>
+      <c r="L6">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -730,25 +748,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>68.01315789473684</v>
+        <v>62.30357142857143</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>63.81944444444444</v>
+        <v>63.42372881355932</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>7.46</v>
+        <v>4.3</v>
       </c>
       <c r="G7">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="H7">
-        <v>5.25</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -756,25 +774,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>67.86842105263158</v>
+        <v>62.25</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>63.77777777777778</v>
+        <v>63.69491525423729</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>7.31</v>
+        <v>4.18</v>
       </c>
       <c r="G8">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H8">
-        <v>5.13</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -782,25 +800,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>67.73684210526316</v>
+        <v>62.39285714285715</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>63.61111111111111</v>
+        <v>64.23728813559322</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>7.13</v>
+        <v>4.06</v>
       </c>
       <c r="G9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="H9">
-        <v>5.06</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -808,25 +826,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>67.63157894736842</v>
+        <v>62.375</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>63.38888888888889</v>
+        <v>64</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>6.97</v>
+        <v>3.97</v>
       </c>
       <c r="G10">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="H10">
-        <v>5.02</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -834,25 +852,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>67.56578947368421</v>
+        <v>61.92857142857143</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>63.05555555555556</v>
+        <v>63.5593220338983</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>6.82</v>
+        <v>3.92</v>
       </c>
       <c r="G11">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="H11">
-        <v>5.03</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -860,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67.39473684210526</v>
+        <v>61.51785714285715</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>62.88888888888889</v>
+        <v>63.08474576271186</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>6.67</v>
+        <v>3.92</v>
       </c>
       <c r="G12">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="H12">
-        <v>5.06</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -886,25 +904,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>67.10526315789474</v>
+        <v>61.21428571428572</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>63.06944444444444</v>
+        <v>62.76271186440678</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>6.53</v>
+        <v>3.95</v>
       </c>
       <c r="G13">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="H13">
-        <v>5.1</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -912,25 +930,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>66.72368421052632</v>
+        <v>60.89285714285715</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>62.97222222222222</v>
+        <v>62.67796610169491</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>6.41</v>
+        <v>4.01</v>
       </c>
       <c r="G14">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="H14">
-        <v>5.17</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -938,25 +956,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>66.35526315789474</v>
+        <v>60.71428571428572</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>62.61111111111111</v>
+        <v>62.5593220338983</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>6.31</v>
+        <v>4.07</v>
       </c>
       <c r="G15">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="H15">
-        <v>5.27</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -964,25 +982,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>66.02631578947368</v>
+        <v>60.875</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>62.47222222222222</v>
+        <v>62.66101694915254</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F16">
-        <v>6.22</v>
+        <v>4.1</v>
       </c>
       <c r="G16">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H16">
-        <v>5.39</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -990,25 +1008,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>65.75</v>
+        <v>61.10714285714285</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>62.70833333333334</v>
+        <v>62.79661016949152</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F17">
-        <v>6.13</v>
+        <v>4.11</v>
       </c>
       <c r="G17">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H17">
-        <v>5.52</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1016,25 +1034,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>65.75</v>
+        <v>61.23214285714285</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>62.95833333333334</v>
+        <v>62.96610169491525</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>4.12</v>
       </c>
       <c r="G18">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="H18">
-        <v>5.66</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1042,25 +1060,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>65.75</v>
+        <v>61.39285714285715</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>63.16666666666666</v>
+        <v>63.16949152542373</v>
       </c>
       <c r="E19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>5.86</v>
+        <v>4.11</v>
       </c>
       <c r="G19">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="H19">
-        <v>5.8</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1068,25 +1086,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>65.64473684210526</v>
+        <v>61.57142857142857</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>63.30555555555556</v>
+        <v>63.38983050847457</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>5.71</v>
+        <v>4.07</v>
       </c>
       <c r="G20">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H20">
-        <v>5.96</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1094,25 +1112,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>65.53947368421052</v>
+        <v>61.55357142857143</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>63.52777777777778</v>
+        <v>63.47457627118644</v>
       </c>
       <c r="E21">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21">
-        <v>5.56</v>
+        <v>4.05</v>
       </c>
       <c r="G21">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>6.14</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1120,25 +1138,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>65.36842105263158</v>
+        <v>61.57142857142857</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>63.72222222222222</v>
+        <v>63.3728813559322</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22">
-        <v>5.4</v>
+        <v>4.04</v>
       </c>
       <c r="G22">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>6.31</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1146,25 +1164,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>65.19736842105263</v>
+        <v>61.375</v>
       </c>
       <c r="C23">
         <v>21</v>
       </c>
       <c r="D23">
-        <v>63.77777777777778</v>
+        <v>63.08474576271186</v>
       </c>
       <c r="E23">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F23">
-        <v>5.25</v>
+        <v>4.05</v>
       </c>
       <c r="G23">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="H23">
-        <v>6.5</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1172,25 +1190,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>64.93421052631579</v>
+        <v>61.19642857142857</v>
       </c>
       <c r="C24">
         <v>22</v>
       </c>
       <c r="D24">
-        <v>63.91666666666666</v>
+        <v>62.8135593220339</v>
       </c>
       <c r="E24">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F24">
-        <v>5.12</v>
+        <v>4.07</v>
       </c>
       <c r="G24">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>6.73</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1198,25 +1216,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>64.71052631578948</v>
+        <v>61.25</v>
       </c>
       <c r="C25">
         <v>23</v>
       </c>
       <c r="D25">
-        <v>64.19444444444444</v>
+        <v>62.54237288135593</v>
       </c>
       <c r="E25">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F25">
-        <v>5.02</v>
+        <v>4.07</v>
       </c>
       <c r="G25">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="H25">
-        <v>6.99</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1224,25 +1242,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>64.27631578947368</v>
+        <v>61.35714285714285</v>
       </c>
       <c r="C26">
         <v>24</v>
       </c>
       <c r="D26">
-        <v>64.625</v>
+        <v>62.59322033898305</v>
       </c>
       <c r="E26">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F26">
-        <v>4.93</v>
+        <v>4.06</v>
       </c>
       <c r="G26">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>7.27</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1250,25 +1268,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>64.13157894736842</v>
+        <v>61.23214285714285</v>
       </c>
       <c r="C27">
         <v>25</v>
       </c>
       <c r="D27">
-        <v>64.76388888888889</v>
+        <v>62.52542372881356</v>
       </c>
       <c r="E27">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F27">
-        <v>4.83</v>
+        <v>4.05</v>
       </c>
       <c r="G27">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="H27">
-        <v>7.57</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1276,25 +1294,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>63.89473684210526</v>
+        <v>61.19642857142857</v>
       </c>
       <c r="C28">
         <v>26</v>
       </c>
       <c r="D28">
-        <v>65.13888888888889</v>
+        <v>62.35593220338983</v>
       </c>
       <c r="E28">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F28">
-        <v>4.72</v>
+        <v>4.03</v>
       </c>
       <c r="G28">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>7.88</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1302,25 +1320,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>63.75</v>
+        <v>61.26785714285715</v>
       </c>
       <c r="C29">
         <v>27</v>
       </c>
       <c r="D29">
-        <v>65.56944444444444</v>
+        <v>62.28813559322034</v>
       </c>
       <c r="E29">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F29">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H29">
-        <v>8.210000000000001</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1328,25 +1346,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>63.51315789473684</v>
+        <v>61.48214285714285</v>
       </c>
       <c r="C30">
         <v>28</v>
       </c>
       <c r="D30">
-        <v>65.73611111111111</v>
+        <v>62.15254237288136</v>
       </c>
       <c r="E30">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F30">
-        <v>4.46</v>
+        <v>3.97</v>
       </c>
       <c r="G30">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>8.59</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1354,25 +1372,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>63.43421052631579</v>
+        <v>61.48214285714285</v>
       </c>
       <c r="C31">
         <v>29</v>
       </c>
       <c r="D31">
-        <v>66.04166666666667</v>
+        <v>62.32203389830509</v>
       </c>
       <c r="E31">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F31">
-        <v>4.33</v>
+        <v>3.94</v>
       </c>
       <c r="G31">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="H31">
-        <v>9.06</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1380,25 +1398,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>63.43421052631579</v>
+        <v>61.41071428571428</v>
       </c>
       <c r="C32">
         <v>30</v>
       </c>
       <c r="D32">
-        <v>66.56944444444444</v>
+        <v>62.57627118644068</v>
       </c>
       <c r="E32">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F32">
-        <v>4.22</v>
+        <v>3.92</v>
       </c>
       <c r="G32">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="H32">
-        <v>9.640000000000001</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1406,25 +1424,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>63.5</v>
+        <v>61.30357142857143</v>
       </c>
       <c r="C33">
         <v>31</v>
       </c>
       <c r="D33">
-        <v>67.22222222222223</v>
+        <v>62.79661016949152</v>
       </c>
       <c r="E33">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F33">
-        <v>4.14</v>
+        <v>3.91</v>
       </c>
       <c r="G33">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H33">
-        <v>10.3</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1432,25 +1450,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>63.25</v>
+        <v>61.23214285714285</v>
       </c>
       <c r="C34">
         <v>32</v>
       </c>
       <c r="D34">
-        <v>67.875</v>
+        <v>62.98305084745763</v>
       </c>
       <c r="E34">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F34">
-        <v>4.08</v>
+        <v>3.91</v>
       </c>
       <c r="G34">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="H34">
-        <v>11.01</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1458,25 +1476,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>62.98684210526316</v>
+        <v>61.03571428571428</v>
       </c>
       <c r="C35">
         <v>33</v>
       </c>
       <c r="D35">
-        <v>68.20833333333333</v>
+        <v>63.3728813559322</v>
       </c>
       <c r="E35">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F35">
-        <v>4.04</v>
+        <v>3.93</v>
       </c>
       <c r="G35">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H35">
-        <v>11.76</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1484,25 +1502,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>62.67105263157895</v>
+        <v>60.98214285714285</v>
       </c>
       <c r="C36">
         <v>34</v>
       </c>
       <c r="D36">
-        <v>68.79166666666667</v>
+        <v>63.66101694915254</v>
       </c>
       <c r="E36">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F36">
-        <v>4.02</v>
+        <v>3.98</v>
       </c>
       <c r="G36">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H36">
-        <v>12.55</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1510,25 +1528,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>62.32894736842105</v>
+        <v>60.96428571428572</v>
       </c>
       <c r="C37">
         <v>35</v>
       </c>
       <c r="D37">
-        <v>69.375</v>
+        <v>63.66101694915254</v>
       </c>
       <c r="E37">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F37">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="G37">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H37">
-        <v>13.44</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1536,25 +1554,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>61.92105263157895</v>
+        <v>61.125</v>
       </c>
       <c r="C38">
         <v>36</v>
       </c>
       <c r="D38">
-        <v>70.13888888888889</v>
+        <v>63.57627118644068</v>
       </c>
       <c r="E38">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F38">
-        <v>4.06</v>
+        <v>4.12</v>
       </c>
       <c r="G38">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H38">
-        <v>14.43</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1562,25 +1580,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>61.82894736842105</v>
+        <v>61.14285714285715</v>
       </c>
       <c r="C39">
         <v>37</v>
       </c>
       <c r="D39">
-        <v>71.48611111111111</v>
+        <v>63.88135593220339</v>
       </c>
       <c r="E39">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F39">
-        <v>4.08</v>
+        <v>4.23</v>
       </c>
       <c r="G39">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H39">
-        <v>15.48</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1588,25 +1606,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>62.18421052631579</v>
+        <v>61.125</v>
       </c>
       <c r="C40">
         <v>38</v>
       </c>
       <c r="D40">
-        <v>73.34722222222223</v>
+        <v>64.27118644067797</v>
       </c>
       <c r="E40">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F40">
-        <v>4.06</v>
+        <v>4.37</v>
       </c>
       <c r="G40">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H40">
-        <v>16.47</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1614,25 +1632,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>62.5921052631579</v>
+        <v>61.25</v>
       </c>
       <c r="C41">
         <v>39</v>
       </c>
       <c r="D41">
-        <v>74.91666666666667</v>
+        <v>64.52542372881356</v>
       </c>
       <c r="E41">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F41">
-        <v>3.98</v>
+        <v>4.55</v>
       </c>
       <c r="G41">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="H41">
-        <v>17.37</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1640,25 +1658,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>62.57894736842105</v>
+        <v>61.19642857142857</v>
       </c>
       <c r="C42">
         <v>40</v>
       </c>
       <c r="D42">
-        <v>76.125</v>
+        <v>64.86440677966101</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F42">
-        <v>3.93</v>
+        <v>4.77</v>
       </c>
       <c r="G42">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="H42">
-        <v>18.2</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1666,25 +1684,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>62.52631578947368</v>
+        <v>61.33928571428572</v>
       </c>
       <c r="C43">
         <v>41</v>
       </c>
       <c r="D43">
-        <v>76.875</v>
+        <v>65.27118644067797</v>
       </c>
       <c r="E43">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F43">
-        <v>3.87</v>
+        <v>5.01</v>
       </c>
       <c r="G43">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="H43">
-        <v>18.97</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1692,25 +1710,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>62.39473684210526</v>
+        <v>61.53571428571428</v>
       </c>
       <c r="C44">
         <v>42</v>
       </c>
       <c r="D44">
-        <v>78.01388888888889</v>
+        <v>65.83050847457628</v>
       </c>
       <c r="E44">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F44">
-        <v>3.83</v>
+        <v>5.27</v>
       </c>
       <c r="G44">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="H44">
-        <v>19.69</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1718,25 +1736,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>62.3421052631579</v>
+        <v>61.71428571428572</v>
       </c>
       <c r="C45">
         <v>43</v>
       </c>
       <c r="D45">
-        <v>79.63888888888889</v>
+        <v>66.01694915254237</v>
       </c>
       <c r="E45">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F45">
-        <v>3.79</v>
+        <v>5.53</v>
       </c>
       <c r="G45">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="H45">
-        <v>20.36</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1744,25 +1762,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>62.3421052631579</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>44</v>
       </c>
       <c r="D46">
-        <v>81.66666666666667</v>
+        <v>66.40677966101696</v>
       </c>
       <c r="E46">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F46">
-        <v>3.76</v>
+        <v>5.76</v>
       </c>
       <c r="G46">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="H46">
-        <v>20.96</v>
+        <v>9.869999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1770,25 +1788,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>62.14473684210526</v>
+        <v>62.375</v>
       </c>
       <c r="C47">
         <v>45</v>
       </c>
       <c r="D47">
-        <v>83.66666666666667</v>
+        <v>66.94915254237289</v>
       </c>
       <c r="E47">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F47">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="G47">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="H47">
-        <v>21.52</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1796,25 +1814,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>61.93421052631579</v>
+        <v>62.78571428571428</v>
       </c>
       <c r="C48">
         <v>46</v>
       </c>
       <c r="D48">
-        <v>84.90277777777777</v>
+        <v>67.72881355932203</v>
       </c>
       <c r="E48">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F48">
-        <v>3.76</v>
+        <v>6.29</v>
       </c>
       <c r="G48">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="H48">
-        <v>22.12</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1822,25 +1840,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>61.64473684210526</v>
+        <v>63.23214285714285</v>
       </c>
       <c r="C49">
         <v>47</v>
       </c>
       <c r="D49">
-        <v>85.30555555555556</v>
+        <v>68.27118644067797</v>
       </c>
       <c r="E49">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F49">
-        <v>3.8</v>
+        <v>6.62</v>
       </c>
       <c r="G49">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="H49">
-        <v>22.81</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1848,25 +1866,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>61.96052631578947</v>
+        <v>63.76785714285715</v>
       </c>
       <c r="C50">
         <v>48</v>
       </c>
       <c r="D50">
-        <v>85.83333333333333</v>
+        <v>68.96610169491525</v>
       </c>
       <c r="E50">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F50">
-        <v>3.81</v>
+        <v>6.93</v>
       </c>
       <c r="G50">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="H50">
-        <v>23.56</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1874,25 +1892,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>61.88157894736842</v>
+        <v>64.125</v>
       </c>
       <c r="C51">
         <v>49</v>
       </c>
       <c r="D51">
-        <v>85.80555555555556</v>
+        <v>69.06779661016949</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F51">
-        <v>3.81</v>
+        <v>7.27</v>
       </c>
       <c r="G51">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="H51">
-        <v>24.38</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1900,25 +1918,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>61.92105263157895</v>
+        <v>64.53571428571429</v>
       </c>
       <c r="C52">
         <v>50</v>
       </c>
       <c r="D52">
-        <v>86.36111111111111</v>
+        <v>69.71186440677967</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F52">
-        <v>3.81</v>
+        <v>7.67</v>
       </c>
       <c r="G52">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="H52">
-        <v>25.14</v>
+        <v>14.64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1926,25 +1944,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>61.89473684210526</v>
+        <v>64.64285714285714</v>
       </c>
       <c r="C53">
         <v>51</v>
       </c>
       <c r="D53">
-        <v>87.40277777777777</v>
+        <v>71.11864406779661</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F53">
-        <v>3.81</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G53">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="H53">
-        <v>25.76</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1952,25 +1970,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>61.96052631578947</v>
+        <v>64.64285714285714</v>
       </c>
       <c r="C54">
         <v>52</v>
       </c>
       <c r="D54">
-        <v>88.61111111111111</v>
+        <v>72.86440677966101</v>
       </c>
       <c r="E54">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F54">
-        <v>3.82</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="G54">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="H54">
-        <v>26.18</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1978,25 +1996,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>62.06578947368421</v>
+        <v>65.16071428571429</v>
       </c>
       <c r="C55">
         <v>53</v>
       </c>
       <c r="D55">
-        <v>90.15277777777777</v>
+        <v>74.62711864406779</v>
       </c>
       <c r="E55">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F55">
-        <v>3.82</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="G55">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="H55">
-        <v>26.38</v>
+        <v>17.72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2004,25 +2022,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>62.02631578947368</v>
+        <v>66.17857142857143</v>
       </c>
       <c r="C56">
         <v>54</v>
       </c>
       <c r="D56">
-        <v>91.875</v>
+        <v>75.86440677966101</v>
       </c>
       <c r="E56">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F56">
-        <v>3.84</v>
+        <v>10.03</v>
       </c>
       <c r="G56">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="H56">
-        <v>26.32</v>
+        <v>18.58</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2030,25 +2048,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>62.11842105263158</v>
+        <v>67.01785714285714</v>
       </c>
       <c r="C57">
         <v>55</v>
       </c>
       <c r="D57">
-        <v>93.33333333333333</v>
+        <v>76.42372881355932</v>
       </c>
       <c r="E57">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F57">
-        <v>3.84</v>
+        <v>10.71</v>
       </c>
       <c r="G57">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="H57">
-        <v>26.03</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2056,25 +2074,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>62.03947368421053</v>
+        <v>67.33928571428571</v>
       </c>
       <c r="C58">
         <v>56</v>
       </c>
       <c r="D58">
-        <v>94.63888888888889</v>
+        <v>77.7457627118644</v>
       </c>
       <c r="E58">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F58">
-        <v>3.84</v>
+        <v>11.55</v>
       </c>
       <c r="G58">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="H58">
-        <v>25.52</v>
+        <v>20.17</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2082,25 +2100,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>61.96052631578947</v>
+        <v>68.08928571428571</v>
       </c>
       <c r="C59">
         <v>57</v>
       </c>
       <c r="D59">
-        <v>95.25</v>
+        <v>79.20338983050847</v>
       </c>
       <c r="E59">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F59">
-        <v>3.87</v>
+        <v>12.49</v>
       </c>
       <c r="G59">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="H59">
-        <v>24.88</v>
+        <v>20.89</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2108,25 +2126,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>61.8421052631579</v>
+        <v>69.08928571428571</v>
       </c>
       <c r="C60">
         <v>58</v>
       </c>
       <c r="D60">
-        <v>95.25</v>
+        <v>81.77966101694915</v>
       </c>
       <c r="E60">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F60">
-        <v>3.94</v>
+        <v>13.49</v>
       </c>
       <c r="G60">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="H60">
-        <v>24.15</v>
+        <v>21.49</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2134,25 +2152,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>61.9078947368421</v>
+        <v>70.07142857142857</v>
       </c>
       <c r="C61">
         <v>59</v>
       </c>
       <c r="D61">
-        <v>94.54166666666667</v>
+        <v>84.01694915254237</v>
       </c>
       <c r="E61">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F61">
-        <v>4.02</v>
+        <v>14.5</v>
       </c>
       <c r="G61">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="H61">
-        <v>23.43</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2160,25 +2178,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>62.07894736842105</v>
+        <v>71.25</v>
       </c>
       <c r="C62">
         <v>60</v>
       </c>
       <c r="D62">
-        <v>93.55555555555556</v>
+        <v>84.89830508474576</v>
       </c>
       <c r="E62">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F62">
-        <v>4.11</v>
+        <v>15.53</v>
       </c>
       <c r="G62">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="H62">
-        <v>22.78</v>
+        <v>22.59</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2186,25 +2204,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>62.10526315789474</v>
+        <v>72.625</v>
       </c>
       <c r="C63">
         <v>61</v>
       </c>
       <c r="D63">
-        <v>92.47222222222223</v>
+        <v>85.27118644067797</v>
       </c>
       <c r="E63">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F63">
-        <v>4.23</v>
+        <v>16.56</v>
       </c>
       <c r="G63">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="H63">
-        <v>22.16</v>
+        <v>23.27</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2212,25 +2230,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>62.18421052631579</v>
+        <v>73.89285714285714</v>
       </c>
       <c r="C64">
         <v>62</v>
       </c>
       <c r="D64">
-        <v>91.16666666666667</v>
+        <v>85.77966101694915</v>
       </c>
       <c r="E64">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F64">
-        <v>4.38</v>
+        <v>17.54</v>
       </c>
       <c r="G64">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="H64">
-        <v>21.59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2238,25 +2256,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>62.17105263157895</v>
+        <v>74.78571428571429</v>
       </c>
       <c r="C65">
         <v>63</v>
       </c>
       <c r="D65">
-        <v>89.91666666666667</v>
+        <v>86.10169491525424</v>
       </c>
       <c r="E65">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F65">
-        <v>4.56</v>
+        <v>18.48</v>
       </c>
       <c r="G65">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="H65">
-        <v>21.06</v>
+        <v>24.74</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2264,25 +2282,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>62.06578947368421</v>
+        <v>77.05357142857143</v>
       </c>
       <c r="C66">
         <v>64</v>
       </c>
       <c r="D66">
-        <v>88.70833333333333</v>
+        <v>86.38983050847457</v>
       </c>
       <c r="E66">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F66">
-        <v>4.78</v>
+        <v>19.24</v>
       </c>
       <c r="G66">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="H66">
-        <v>20.48</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2290,25 +2308,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>62.27631578947368</v>
+        <v>78.94642857142857</v>
       </c>
       <c r="C67">
         <v>65</v>
       </c>
       <c r="D67">
-        <v>87.83333333333333</v>
+        <v>87.49152542372882</v>
       </c>
       <c r="E67">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>19.85</v>
       </c>
       <c r="G67">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="H67">
-        <v>19.78</v>
+        <v>26.02</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2316,25 +2334,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>62.63157894736842</v>
+        <v>80.60714285714286</v>
       </c>
       <c r="C68">
         <v>66</v>
       </c>
       <c r="D68">
-        <v>86.77777777777777</v>
+        <v>88.66101694915254</v>
       </c>
       <c r="E68">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F68">
-        <v>5.23</v>
+        <v>20.3</v>
       </c>
       <c r="G68">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="H68">
-        <v>18.99</v>
+        <v>26.41</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2342,25 +2360,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>62.86842105263158</v>
+        <v>81.75</v>
       </c>
       <c r="C69">
         <v>67</v>
       </c>
       <c r="D69">
-        <v>86.20833333333333</v>
+        <v>90.01694915254237</v>
       </c>
       <c r="E69">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F69">
-        <v>5.44</v>
+        <v>20.65</v>
       </c>
       <c r="G69">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="H69">
-        <v>18.09</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2368,25 +2386,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>63.11842105263158</v>
+        <v>83.05357142857143</v>
       </c>
       <c r="C70">
         <v>68</v>
       </c>
       <c r="D70">
-        <v>85.93055555555556</v>
+        <v>91.50847457627118</v>
       </c>
       <c r="E70">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F70">
-        <v>5.64</v>
+        <v>20.9</v>
       </c>
       <c r="G70">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="H70">
-        <v>17.08</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2394,25 +2412,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>63.44736842105263</v>
+        <v>84.46428571428571</v>
       </c>
       <c r="C71">
         <v>69</v>
       </c>
       <c r="D71">
-        <v>85.375</v>
+        <v>93.15254237288136</v>
       </c>
       <c r="E71">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F71">
-        <v>5.86</v>
+        <v>21.04</v>
       </c>
       <c r="G71">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="H71">
-        <v>15.97</v>
+        <v>26.24</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2420,25 +2438,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>63.93421052631579</v>
+        <v>85.23214285714286</v>
       </c>
       <c r="C72">
         <v>70</v>
       </c>
       <c r="D72">
-        <v>84.51388888888889</v>
+        <v>94.1864406779661</v>
       </c>
       <c r="E72">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F72">
-        <v>6.13</v>
+        <v>21.13</v>
       </c>
       <c r="G72">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="H72">
-        <v>14.78</v>
+        <v>25.78</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2446,25 +2464,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>64.34210526315789</v>
+        <v>85.66071428571429</v>
       </c>
       <c r="C73">
         <v>71</v>
       </c>
       <c r="D73">
-        <v>83.76388888888889</v>
+        <v>94.67796610169492</v>
       </c>
       <c r="E73">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F73">
-        <v>6.41</v>
+        <v>21.18</v>
       </c>
       <c r="G73">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="H73">
-        <v>13.59</v>
+        <v>25.18</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2472,25 +2490,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>64.53947368421052</v>
+        <v>85.75</v>
       </c>
       <c r="C74">
         <v>72</v>
       </c>
       <c r="D74">
-        <v>81.88888888888889</v>
+        <v>94.55932203389831</v>
       </c>
       <c r="E74">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F74">
-        <v>6.75</v>
+        <v>21.24</v>
       </c>
       <c r="G74">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="H74">
-        <v>12.44</v>
+        <v>24.53</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2498,25 +2516,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>64.88157894736842</v>
+        <v>85.94642857142857</v>
       </c>
       <c r="C75">
         <v>73</v>
       </c>
       <c r="D75">
-        <v>79.77777777777777</v>
+        <v>94</v>
       </c>
       <c r="E75">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F75">
-        <v>7.09</v>
+        <v>21.24</v>
       </c>
       <c r="G75">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="H75">
-        <v>11.4</v>
+        <v>23.87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2524,25 +2542,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>65.26315789473684</v>
+        <v>85.78571428571429</v>
       </c>
       <c r="C76">
         <v>74</v>
       </c>
       <c r="D76">
-        <v>77.54166666666667</v>
+        <v>93.15254237288136</v>
       </c>
       <c r="E76">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F76">
-        <v>7.49</v>
+        <v>21.23</v>
       </c>
       <c r="G76">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="H76">
-        <v>10.5</v>
+        <v>23.24</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2550,25 +2568,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>65.34210526315789</v>
+        <v>85.78571428571429</v>
       </c>
       <c r="C77">
         <v>75</v>
       </c>
       <c r="D77">
-        <v>75.84722222222223</v>
+        <v>91.94915254237289</v>
       </c>
       <c r="E77">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F77">
-        <v>7.99</v>
+        <v>21.21</v>
       </c>
       <c r="G77">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="H77">
-        <v>9.720000000000001</v>
+        <v>22.66</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2576,25 +2594,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>65.46052631578948</v>
+        <v>85.98214285714286</v>
       </c>
       <c r="C78">
         <v>76</v>
       </c>
       <c r="D78">
-        <v>74.16666666666667</v>
+        <v>90.84745762711864</v>
       </c>
       <c r="E78">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F78">
-        <v>8.56</v>
+        <v>21.17</v>
       </c>
       <c r="G78">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="H78">
-        <v>9.029999999999999</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2602,25 +2620,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>66.03947368421052</v>
+        <v>86.10714285714286</v>
       </c>
       <c r="C79">
         <v>77</v>
       </c>
       <c r="D79">
-        <v>72.40277777777777</v>
+        <v>89.94915254237289</v>
       </c>
       <c r="E79">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F79">
-        <v>9.19</v>
+        <v>21.12</v>
       </c>
       <c r="G79">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="H79">
-        <v>8.4</v>
+        <v>21.59</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2628,25 +2646,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>66.96052631578948</v>
+        <v>86.28571428571429</v>
       </c>
       <c r="C80">
         <v>78</v>
       </c>
       <c r="D80">
-        <v>70.79166666666667</v>
+        <v>88.91525423728814</v>
       </c>
       <c r="E80">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F80">
-        <v>9.859999999999999</v>
+        <v>21.07</v>
       </c>
       <c r="G80">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="H80">
-        <v>7.81</v>
+        <v>20.96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2654,25 +2672,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>67.68421052631579</v>
+        <v>86.23214285714286</v>
       </c>
       <c r="C81">
         <v>79</v>
       </c>
       <c r="D81">
-        <v>69.93055555555556</v>
+        <v>87.77966101694915</v>
       </c>
       <c r="E81">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F81">
-        <v>10.58</v>
+        <v>21.02</v>
       </c>
       <c r="G81">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="H81">
-        <v>7.24</v>
+        <v>20.24</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2680,25 +2698,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>68.43421052631579</v>
+        <v>86.35714285714286</v>
       </c>
       <c r="C82">
         <v>80</v>
       </c>
       <c r="D82">
-        <v>68.52777777777777</v>
+        <v>87</v>
       </c>
       <c r="E82">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F82">
-        <v>11.39</v>
+        <v>20.99</v>
       </c>
       <c r="G82">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="H82">
-        <v>6.72</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2706,25 +2724,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>68.88157894736842</v>
+        <v>86.03571428571429</v>
       </c>
       <c r="C83">
         <v>81</v>
       </c>
       <c r="D83">
-        <v>67.68055555555556</v>
+        <v>86.42372881355932</v>
       </c>
       <c r="E83">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F83">
-        <v>12.27</v>
+        <v>20.94</v>
       </c>
       <c r="G83">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="H83">
-        <v>6.26</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2732,25 +2750,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>69.90789473684211</v>
+        <v>85.66071428571429</v>
       </c>
       <c r="C84">
         <v>82</v>
       </c>
       <c r="D84">
-        <v>67.06944444444444</v>
+        <v>85.88135593220339</v>
       </c>
       <c r="E84">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F84">
-        <v>13.21</v>
+        <v>20.87</v>
       </c>
       <c r="G84">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="H84">
-        <v>5.8</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2758,25 +2776,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>71.07894736842105</v>
+        <v>85.51785714285714</v>
       </c>
       <c r="C85">
         <v>83</v>
       </c>
       <c r="D85">
-        <v>66.76388888888889</v>
+        <v>85.32203389830508</v>
       </c>
       <c r="E85">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F85">
-        <v>14.17</v>
+        <v>20.74</v>
       </c>
       <c r="G85">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="H85">
-        <v>5.31</v>
+        <v>16.24</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2784,25 +2802,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>72.15789473684211</v>
+        <v>85.48214285714286</v>
       </c>
       <c r="C86">
         <v>84</v>
       </c>
       <c r="D86">
-        <v>66.16666666666667</v>
+        <v>84.72881355932203</v>
       </c>
       <c r="E86">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F86">
-        <v>15.15</v>
+        <v>20.48</v>
       </c>
       <c r="G86">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="H86">
-        <v>4.83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2810,25 +2828,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>73.28947368421052</v>
+        <v>85.55357142857143</v>
       </c>
       <c r="C87">
         <v>85</v>
       </c>
       <c r="D87">
-        <v>65.02777777777777</v>
+        <v>83.69491525423729</v>
       </c>
       <c r="E87">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F87">
-        <v>16.13</v>
+        <v>20.08</v>
       </c>
       <c r="G87">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="H87">
-        <v>4.44</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2836,25 +2854,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>74.73684210526316</v>
+        <v>85.67857142857143</v>
       </c>
       <c r="C88">
         <v>86</v>
       </c>
       <c r="D88">
-        <v>63.98611111111111</v>
+        <v>81.69491525423729</v>
       </c>
       <c r="E88">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F88">
-        <v>17.08</v>
+        <v>19.53</v>
       </c>
       <c r="G88">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="H88">
-        <v>4.1</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2862,25 +2880,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>76.03947368421052</v>
+        <v>85.73214285714286</v>
       </c>
       <c r="C89">
         <v>87</v>
       </c>
       <c r="D89">
-        <v>63.31944444444444</v>
+        <v>79.38983050847457</v>
       </c>
       <c r="E89">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F89">
-        <v>18.01</v>
+        <v>18.83</v>
       </c>
       <c r="G89">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="H89">
-        <v>3.8</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2888,25 +2906,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>77.84210526315789</v>
+        <v>85.92857142857143</v>
       </c>
       <c r="C90">
         <v>88</v>
       </c>
       <c r="D90">
-        <v>62.48611111111111</v>
+        <v>77.10169491525424</v>
       </c>
       <c r="E90">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F90">
-        <v>18.91</v>
+        <v>17.97</v>
       </c>
       <c r="G90">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="H90">
-        <v>3.55</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2914,25 +2932,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>79.18421052631579</v>
+        <v>85.46428571428571</v>
       </c>
       <c r="C91">
         <v>89</v>
       </c>
       <c r="D91">
-        <v>62.34722222222222</v>
+        <v>75.71186440677967</v>
       </c>
       <c r="E91">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F91">
-        <v>19.77</v>
+        <v>16.98</v>
       </c>
       <c r="G91">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H91">
-        <v>3.28</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2940,25 +2958,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>80.77631578947368</v>
+        <v>84.91071428571429</v>
       </c>
       <c r="C92">
         <v>90</v>
       </c>
       <c r="D92">
-        <v>61.76388888888889</v>
+        <v>73.83050847457628</v>
       </c>
       <c r="E92">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F92">
-        <v>20.54</v>
+        <v>15.88</v>
       </c>
       <c r="G92">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="H92">
-        <v>3.04</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2966,25 +2984,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>82.28947368421052</v>
+        <v>83.96428571428571</v>
       </c>
       <c r="C93">
         <v>91</v>
       </c>
       <c r="D93">
-        <v>61.04166666666666</v>
+        <v>72</v>
       </c>
       <c r="E93">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F93">
-        <v>21.21</v>
+        <v>14.74</v>
       </c>
       <c r="G93">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="H93">
-        <v>2.85</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2992,25 +3010,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>83.55263157894737</v>
+        <v>82.55357142857143</v>
       </c>
       <c r="C94">
         <v>92</v>
       </c>
       <c r="D94">
-        <v>60.59722222222222</v>
+        <v>70.42372881355932</v>
       </c>
       <c r="E94">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F94">
-        <v>21.81</v>
+        <v>13.56</v>
       </c>
       <c r="G94">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="H94">
-        <v>2.7</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3018,25 +3036,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>84.61842105263158</v>
+        <v>80.94642857142857</v>
       </c>
       <c r="C95">
         <v>93</v>
       </c>
       <c r="D95">
-        <v>60.41666666666666</v>
+        <v>69.23728813559322</v>
       </c>
       <c r="E95">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F95">
-        <v>22.34</v>
+        <v>12.39</v>
       </c>
       <c r="G95">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="H95">
-        <v>2.55</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3044,25 +3062,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>85.75</v>
+        <v>79.32142857142857</v>
       </c>
       <c r="C96">
         <v>94</v>
       </c>
       <c r="D96">
-        <v>60.11111111111111</v>
+        <v>68.23728813559322</v>
       </c>
       <c r="E96">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F96">
-        <v>22.81</v>
+        <v>11.3</v>
       </c>
       <c r="G96">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="H96">
-        <v>2.4</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3070,25 +3088,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>86.85526315789474</v>
+        <v>77.66071428571429</v>
       </c>
       <c r="C97">
         <v>95</v>
       </c>
       <c r="D97">
-        <v>59.83333333333334</v>
+        <v>67.1864406779661</v>
       </c>
       <c r="E97">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F97">
-        <v>23.21</v>
+        <v>10.29</v>
       </c>
       <c r="G97">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="H97">
-        <v>2.28</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3096,25 +3114,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>88.30263157894737</v>
+        <v>76</v>
       </c>
       <c r="C98">
         <v>96</v>
       </c>
       <c r="D98">
-        <v>59.52777777777778</v>
+        <v>66.44067796610169</v>
       </c>
       <c r="E98">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F98">
-        <v>23.5</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="G98">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="H98">
-        <v>2.15</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3122,25 +3140,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>89.19736842105263</v>
+        <v>74.03571428571429</v>
       </c>
       <c r="C99">
         <v>97</v>
       </c>
       <c r="D99">
-        <v>59.23611111111111</v>
+        <v>66.28813559322033</v>
       </c>
       <c r="E99">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F99">
-        <v>23.72</v>
+        <v>8.59</v>
       </c>
       <c r="G99">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="H99">
-        <v>2.04</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3148,25 +3166,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>89.68421052631579</v>
+        <v>72.30357142857143</v>
       </c>
       <c r="C100">
         <v>98</v>
       </c>
       <c r="D100">
-        <v>58.97222222222222</v>
+        <v>65.64406779661017</v>
       </c>
       <c r="E100">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F100">
-        <v>23.86</v>
+        <v>7.86</v>
       </c>
       <c r="G100">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="H100">
-        <v>1.94</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3174,25 +3192,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>90.09210526315789</v>
+        <v>70.76785714285714</v>
       </c>
       <c r="C101">
         <v>99</v>
       </c>
       <c r="D101">
-        <v>58.88888888888889</v>
+        <v>64.62711864406779</v>
       </c>
       <c r="E101">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F101">
-        <v>23.93</v>
+        <v>7.18</v>
       </c>
       <c r="G101">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="H101">
-        <v>1.84</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3200,25 +3218,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>90.55263157894737</v>
+        <v>68.96428571428571</v>
       </c>
       <c r="C102">
         <v>100</v>
       </c>
       <c r="D102">
-        <v>58.80555555555556</v>
+        <v>63.61016949152543</v>
       </c>
       <c r="E102">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F102">
-        <v>23.91</v>
+        <v>6.6</v>
       </c>
       <c r="G102">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="H102">
-        <v>1.75</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3226,25 +3244,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>90.78947368421052</v>
+        <v>67.51785714285714</v>
       </c>
       <c r="C103">
         <v>101</v>
       </c>
       <c r="D103">
-        <v>58.69444444444444</v>
+        <v>62.74576271186441</v>
       </c>
       <c r="E103">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F103">
-        <v>23.8</v>
+        <v>6.08</v>
       </c>
       <c r="G103">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="H103">
-        <v>1.66</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3252,25 +3270,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>91.14473684210526</v>
+        <v>66.69642857142857</v>
       </c>
       <c r="C104">
         <v>102</v>
       </c>
       <c r="D104">
-        <v>58.40277777777778</v>
+        <v>62.11864406779661</v>
       </c>
       <c r="E104">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F104">
-        <v>23.61</v>
+        <v>5.59</v>
       </c>
       <c r="G104">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="H104">
-        <v>1.56</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3278,25 +3296,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>91.5</v>
+        <v>66.08928571428571</v>
       </c>
       <c r="C105">
         <v>103</v>
       </c>
       <c r="D105">
-        <v>58.34722222222222</v>
+        <v>61.96610169491525</v>
       </c>
       <c r="E105">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F105">
-        <v>23.3</v>
+        <v>5.14</v>
       </c>
       <c r="G105">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="H105">
-        <v>1.45</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3304,25 +3322,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>91.72368421052632</v>
+        <v>65.60714285714286</v>
       </c>
       <c r="C106">
         <v>104</v>
       </c>
       <c r="D106">
-        <v>58.02777777777778</v>
+        <v>61.47457627118644</v>
       </c>
       <c r="E106">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F106">
-        <v>22.89</v>
+        <v>4.69</v>
       </c>
       <c r="G106">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="H106">
-        <v>1.33</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3330,25 +3348,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>91.75</v>
+        <v>64.83928571428571</v>
       </c>
       <c r="C107">
         <v>105</v>
       </c>
       <c r="D107">
-        <v>57.94444444444444</v>
+        <v>60.74576271186441</v>
       </c>
       <c r="E107">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F107">
-        <v>22.41</v>
+        <v>4.26</v>
       </c>
       <c r="G107">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="H107">
-        <v>1.2</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3356,25 +3374,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>91.28947368421052</v>
+        <v>63.91071428571428</v>
       </c>
       <c r="C108">
         <v>106</v>
       </c>
       <c r="D108">
-        <v>57.90277777777778</v>
+        <v>60.49152542372882</v>
       </c>
       <c r="E108">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F108">
-        <v>21.89</v>
+        <v>3.88</v>
       </c>
       <c r="G108">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="H108">
-        <v>1.06</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3382,25 +3400,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>90.89473684210526</v>
+        <v>62.94642857142857</v>
       </c>
       <c r="C109">
         <v>107</v>
       </c>
       <c r="D109">
-        <v>57.72222222222222</v>
+        <v>60.15254237288136</v>
       </c>
       <c r="E109">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F109">
-        <v>21.33</v>
+        <v>3.58</v>
       </c>
       <c r="G109">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="H109">
-        <v>0.92</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3408,25 +3426,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>90.34210526315789</v>
+        <v>62.21428571428572</v>
       </c>
       <c r="C110">
         <v>108</v>
       </c>
       <c r="D110">
-        <v>57.76388888888889</v>
+        <v>59.77966101694916</v>
       </c>
       <c r="E110">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F110">
-        <v>20.69</v>
+        <v>3.32</v>
       </c>
       <c r="G110">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="H110">
-        <v>0.76</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3434,25 +3452,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>89.56578947368421</v>
+        <v>61.55357142857143</v>
       </c>
       <c r="C111">
         <v>109</v>
       </c>
       <c r="D111">
-        <v>57.56944444444444</v>
+        <v>59.28813559322034</v>
       </c>
       <c r="E111">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F111">
-        <v>20</v>
+        <v>3.09</v>
       </c>
       <c r="G111">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="H111">
-        <v>0.62</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3460,25 +3478,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>88.84210526315789</v>
+        <v>61.05357142857143</v>
       </c>
       <c r="C112">
         <v>110</v>
       </c>
       <c r="D112">
-        <v>57.31944444444444</v>
+        <v>58.76271186440678</v>
       </c>
       <c r="E112">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F112">
-        <v>19.23</v>
+        <v>2.88</v>
       </c>
       <c r="G112">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="H112">
-        <v>0.49</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3486,25 +3504,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>87.90789473684211</v>
+        <v>60.92857142857143</v>
       </c>
       <c r="C113">
         <v>111</v>
       </c>
       <c r="D113">
-        <v>57.05555555555556</v>
+        <v>58.49152542372882</v>
       </c>
       <c r="E113">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F113">
-        <v>18.4</v>
+        <v>2.67</v>
       </c>
       <c r="G113">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="H113">
-        <v>0.38</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3512,25 +3530,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>86.97368421052632</v>
+        <v>60.35714285714285</v>
       </c>
       <c r="C114">
         <v>112</v>
       </c>
       <c r="D114">
-        <v>56.59722222222222</v>
+        <v>58.30508474576271</v>
       </c>
       <c r="E114">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F114">
-        <v>17.48</v>
+        <v>2.52</v>
       </c>
       <c r="G114">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="H114">
-        <v>0.31</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3538,25 +3556,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>86.22368421052632</v>
+        <v>59.91071428571428</v>
       </c>
       <c r="C115">
         <v>113</v>
       </c>
       <c r="D115">
-        <v>56.48611111111111</v>
+        <v>58.33898305084746</v>
       </c>
       <c r="E115">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F115">
-        <v>16.53</v>
+        <v>2.37</v>
       </c>
       <c r="G115">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="H115">
-        <v>0.22</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3564,25 +3582,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>85.25</v>
+        <v>59.55357142857143</v>
       </c>
       <c r="C116">
         <v>114</v>
       </c>
       <c r="D116">
-        <v>56.25</v>
+        <v>58.3728813559322</v>
       </c>
       <c r="E116">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F116">
-        <v>15.49</v>
+        <v>2.22</v>
       </c>
       <c r="G116">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="H116">
-        <v>0.14</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3590,25 +3608,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>84.31578947368421</v>
+        <v>59.41071428571428</v>
       </c>
       <c r="C117">
         <v>115</v>
       </c>
       <c r="D117">
-        <v>56.09722222222222</v>
+        <v>58.20338983050848</v>
       </c>
       <c r="E117">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F117">
-        <v>14.37</v>
+        <v>2.06</v>
       </c>
       <c r="G117">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="H117">
-        <v>0.06</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3616,25 +3634,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>82.93421052631579</v>
+        <v>59.25</v>
       </c>
       <c r="C118">
         <v>116</v>
       </c>
       <c r="D118">
-        <v>55.91666666666666</v>
+        <v>58</v>
       </c>
       <c r="E118">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F118">
-        <v>13.23</v>
+        <v>1.9</v>
       </c>
       <c r="G118">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="H118">
-        <v>0.02</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3642,25 +3660,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>81.59210526315789</v>
+        <v>58.875</v>
       </c>
       <c r="C119">
         <v>117</v>
       </c>
       <c r="D119">
-        <v>55.90277777777778</v>
+        <v>57.6271186440678</v>
       </c>
       <c r="E119">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F119">
-        <v>12.08</v>
+        <v>1.74</v>
       </c>
       <c r="G119">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3668,25 +3686,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>79.82894736842105</v>
+        <v>58.66071428571428</v>
       </c>
       <c r="C120">
         <v>118</v>
       </c>
       <c r="D120">
-        <v>55.83333333333334</v>
+        <v>57.42372881355932</v>
       </c>
       <c r="E120">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F120">
-        <v>11.01</v>
+        <v>1.59</v>
       </c>
       <c r="G120">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="H120">
-        <v>0.02</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3694,25 +3712,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>78.34210526315789</v>
+        <v>58.57142857142857</v>
       </c>
       <c r="C121">
         <v>119</v>
       </c>
       <c r="D121">
-        <v>55.77777777777778</v>
+        <v>57.22033898305084</v>
       </c>
       <c r="E121">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F121">
-        <v>10.01</v>
+        <v>1.44</v>
       </c>
       <c r="G121">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="H121">
-        <v>0.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3720,25 +3738,25 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>76.28947368421052</v>
+        <v>58.625</v>
       </c>
       <c r="C122">
         <v>120</v>
       </c>
       <c r="D122">
-        <v>55.75</v>
+        <v>57.1864406779661</v>
       </c>
       <c r="E122">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F122">
-        <v>9.130000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="G122">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="H122">
-        <v>0.12</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3746,25 +3764,25 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>75.09210526315789</v>
+        <v>58.19642857142857</v>
       </c>
       <c r="C123">
         <v>121</v>
       </c>
       <c r="D123">
-        <v>55.43055555555556</v>
+        <v>57.10169491525424</v>
       </c>
       <c r="E123">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F123">
-        <v>8.300000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="G123">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="H123">
-        <v>0.16</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3772,25 +3790,25 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>73.19736842105263</v>
+        <v>57.78571428571428</v>
       </c>
       <c r="C124">
         <v>122</v>
       </c>
       <c r="D124">
-        <v>55.30555555555556</v>
+        <v>57.06779661016949</v>
       </c>
       <c r="E124">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F124">
-        <v>7.55</v>
+        <v>1.09</v>
       </c>
       <c r="G124">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="H124">
-        <v>0.19</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3798,25 +3816,25 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>71.30263157894737</v>
+        <v>57.55357142857143</v>
       </c>
       <c r="C125">
         <v>123</v>
       </c>
       <c r="D125">
-        <v>55.26388888888889</v>
+        <v>57.01694915254237</v>
       </c>
       <c r="E125">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F125">
-        <v>6.9</v>
+        <v>1.03</v>
       </c>
       <c r="G125">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="H125">
-        <v>0.21</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3824,25 +3842,25 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>69.67105263157895</v>
+        <v>57.375</v>
       </c>
       <c r="C126">
         <v>124</v>
       </c>
       <c r="D126">
-        <v>55.40277777777778</v>
+        <v>56.76271186440678</v>
       </c>
       <c r="E126">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F126">
-        <v>6.34</v>
+        <v>0.99</v>
       </c>
       <c r="G126">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="H126">
-        <v>0.23</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3850,25 +3868,25 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>68.32894736842105</v>
+        <v>57.125</v>
       </c>
       <c r="C127">
         <v>125</v>
       </c>
       <c r="D127">
-        <v>55.66666666666666</v>
+        <v>56.33898305084746</v>
       </c>
       <c r="E127">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F127">
-        <v>5.85</v>
+        <v>0.99</v>
       </c>
       <c r="G127">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="H127">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3876,25 +3894,25 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>67.40789473684211</v>
+        <v>56.89285714285715</v>
       </c>
       <c r="C128">
         <v>126</v>
       </c>
       <c r="D128">
-        <v>56.11111111111111</v>
+        <v>56.03389830508475</v>
       </c>
       <c r="E128">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F128">
-        <v>5.42</v>
+        <v>0.99</v>
       </c>
       <c r="G128">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="H128">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3902,25 +3920,25 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>66.69736842105263</v>
+        <v>56.875</v>
       </c>
       <c r="C129">
         <v>127</v>
       </c>
       <c r="D129">
-        <v>56.43055555555556</v>
+        <v>55.84745762711864</v>
       </c>
       <c r="E129">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F129">
-        <v>5.02</v>
+        <v>0.99</v>
       </c>
       <c r="G129">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="H129">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3928,25 +3946,25 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>66.01315789473684</v>
+        <v>56.98214285714285</v>
       </c>
       <c r="C130">
         <v>128</v>
       </c>
       <c r="D130">
-        <v>56.16666666666666</v>
+        <v>55.69491525423729</v>
       </c>
       <c r="E130">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F130">
-        <v>4.63</v>
+        <v>0.98</v>
       </c>
       <c r="G130">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H130">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3954,25 +3972,25 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>65.48684210526316</v>
+        <v>56.85714285714285</v>
       </c>
       <c r="C131">
         <v>129</v>
       </c>
       <c r="D131">
-        <v>55.95833333333334</v>
+        <v>55.5593220338983</v>
       </c>
       <c r="E131">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F131">
-        <v>4.25</v>
+        <v>0.97</v>
       </c>
       <c r="G131">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="H131">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3980,25 +3998,25 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>64.52631578947368</v>
+        <v>56.73214285714285</v>
       </c>
       <c r="C132">
         <v>130</v>
       </c>
       <c r="D132">
-        <v>55.63888888888889</v>
+        <v>55.42372881355932</v>
       </c>
       <c r="E132">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F132">
-        <v>3.94</v>
+        <v>0.92</v>
       </c>
       <c r="G132">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="H132">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4006,25 +4024,25 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>63.72368421052632</v>
+        <v>56.82142857142857</v>
       </c>
       <c r="C133">
         <v>131</v>
       </c>
       <c r="D133">
-        <v>55.54166666666666</v>
+        <v>55.40677966101695</v>
       </c>
       <c r="E133">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F133">
-        <v>3.67</v>
+        <v>0.85</v>
       </c>
       <c r="G133">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="H133">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4032,25 +4050,25 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>63.10526315789474</v>
+        <v>56.89285714285715</v>
       </c>
       <c r="C134">
         <v>132</v>
       </c>
       <c r="D134">
-        <v>55.58333333333334</v>
+        <v>55.4406779661017</v>
       </c>
       <c r="E134">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F134">
-        <v>3.43</v>
+        <v>0.77</v>
       </c>
       <c r="G134">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="H134">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4058,25 +4076,25 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>62.72368421052632</v>
+        <v>57.08928571428572</v>
       </c>
       <c r="C135">
         <v>133</v>
       </c>
       <c r="D135">
-        <v>55.58333333333334</v>
+        <v>55.32203389830509</v>
       </c>
       <c r="E135">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F135">
-        <v>3.19</v>
+        <v>0.63</v>
       </c>
       <c r="G135">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="H135">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4084,25 +4102,25 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>62.39473684210526</v>
+        <v>56.96428571428572</v>
       </c>
       <c r="C136">
         <v>134</v>
       </c>
       <c r="D136">
-        <v>55.55555555555556</v>
+        <v>55.27118644067797</v>
       </c>
       <c r="E136">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F136">
-        <v>2.96</v>
+        <v>0.5</v>
       </c>
       <c r="G136">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="H136">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4110,25 +4128,25 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>61.97368421052632</v>
+        <v>56.89285714285715</v>
       </c>
       <c r="C137">
         <v>135</v>
       </c>
       <c r="D137">
-        <v>55.5</v>
+        <v>55.01694915254237</v>
       </c>
       <c r="E137">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F137">
-        <v>2.75</v>
+        <v>0.37</v>
       </c>
       <c r="G137">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="H137">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4136,25 +4154,25 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>61.51315789473684</v>
+        <v>56.875</v>
       </c>
       <c r="C138">
         <v>136</v>
       </c>
       <c r="D138">
-        <v>55.70833333333334</v>
+        <v>54.93220338983051</v>
       </c>
       <c r="E138">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F138">
-        <v>2.55</v>
+        <v>0.25</v>
       </c>
       <c r="G138">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="H138">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4162,25 +4180,25 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>61.11842105263158</v>
+        <v>56.64285714285715</v>
       </c>
       <c r="C139">
         <v>137</v>
       </c>
       <c r="D139">
-        <v>55.56944444444444</v>
+        <v>54.89830508474576</v>
       </c>
       <c r="E139">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F139">
-        <v>2.38</v>
+        <v>0.16</v>
       </c>
       <c r="G139">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="H139">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4188,25 +4206,25 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>60.8421052631579</v>
+        <v>56.26785714285715</v>
       </c>
       <c r="C140">
         <v>138</v>
       </c>
       <c r="D140">
-        <v>55.625</v>
+        <v>54.98305084745763</v>
       </c>
       <c r="E140">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F140">
-        <v>2.21</v>
+        <v>0.11</v>
       </c>
       <c r="G140">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="H140">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4214,25 +4232,25 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>60.63157894736842</v>
+        <v>56</v>
       </c>
       <c r="C141">
         <v>139</v>
       </c>
       <c r="D141">
-        <v>56</v>
+        <v>55.11864406779661</v>
       </c>
       <c r="E141">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F141">
-        <v>2.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G141">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="H141">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4240,25 +4258,25 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>60.27631578947368</v>
+        <v>55.875</v>
       </c>
       <c r="C142">
         <v>140</v>
       </c>
       <c r="D142">
-        <v>56.125</v>
+        <v>55.47457627118644</v>
       </c>
       <c r="E142">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F142">
-        <v>1.86</v>
+        <v>0.04</v>
       </c>
       <c r="G142">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="H142">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4266,25 +4284,25 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>60</v>
+        <v>55.55357142857143</v>
       </c>
       <c r="C143">
         <v>141</v>
       </c>
       <c r="D143">
-        <v>56.02777777777778</v>
+        <v>55.86440677966102</v>
       </c>
       <c r="E143">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F143">
-        <v>1.7</v>
+        <v>0.03</v>
       </c>
       <c r="G143">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="H143">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4292,25 +4310,25 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>59.73684210526316</v>
+        <v>55.41071428571428</v>
       </c>
       <c r="C144">
         <v>142</v>
       </c>
       <c r="D144">
-        <v>56.18055555555556</v>
+        <v>55.8135593220339</v>
       </c>
       <c r="E144">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F144">
-        <v>1.55</v>
+        <v>0.03</v>
       </c>
       <c r="G144">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="H144">
-        <v>0.47</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4318,25 +4336,25 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>59.44736842105263</v>
+        <v>55.44642857142857</v>
       </c>
       <c r="C145">
         <v>143</v>
       </c>
       <c r="D145">
-        <v>56.27777777777778</v>
+        <v>55.67796610169491</v>
       </c>
       <c r="E145">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F145">
-        <v>1.41</v>
+        <v>0.03</v>
       </c>
       <c r="G145">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="H145">
-        <v>0.51</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4344,25 +4362,25 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>59.22368421052632</v>
+        <v>55.51785714285715</v>
       </c>
       <c r="C146">
         <v>144</v>
       </c>
       <c r="D146">
-        <v>56.31944444444444</v>
+        <v>55.40677966101695</v>
       </c>
       <c r="E146">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F146">
-        <v>1.29</v>
+        <v>0.04</v>
       </c>
       <c r="G146">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="H146">
-        <v>0.57</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4370,25 +4388,25 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>59.11842105263158</v>
+        <v>55.58928571428572</v>
       </c>
       <c r="C147">
         <v>145</v>
       </c>
       <c r="D147">
-        <v>56.16666666666666</v>
+        <v>55.3728813559322</v>
       </c>
       <c r="E147">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F147">
-        <v>1.17</v>
+        <v>0.05</v>
       </c>
       <c r="G147">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="H147">
-        <v>0.63</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4396,25 +4414,25 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>58.85526315789474</v>
+        <v>55.64285714285715</v>
       </c>
       <c r="C148">
         <v>146</v>
       </c>
       <c r="D148">
-        <v>56.125</v>
+        <v>55.3728813559322</v>
       </c>
       <c r="E148">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F148">
-        <v>1.06</v>
+        <v>0.06</v>
       </c>
       <c r="G148">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="H148">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4422,25 +4440,25 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>58.53947368421053</v>
+        <v>55.57142857142857</v>
       </c>
       <c r="C149">
         <v>147</v>
       </c>
       <c r="D149">
-        <v>56.05555555555556</v>
+        <v>55.38983050847457</v>
       </c>
       <c r="E149">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G149">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="H149">
-        <v>0.78</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4448,25 +4466,25 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>58.31578947368421</v>
+        <v>55.5</v>
       </c>
       <c r="C150">
         <v>148</v>
       </c>
       <c r="D150">
-        <v>56.125</v>
+        <v>55.3728813559322</v>
       </c>
       <c r="E150">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F150">
-        <v>0.95</v>
+        <v>0.14</v>
       </c>
       <c r="G150">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="H150">
-        <v>0.86</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4474,25 +4492,25 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>58.18421052631579</v>
+        <v>55.41071428571428</v>
       </c>
       <c r="C151">
         <v>149</v>
       </c>
       <c r="D151">
-        <v>56.20833333333334</v>
+        <v>55.30508474576271</v>
       </c>
       <c r="E151">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F151">
-        <v>0.93</v>
+        <v>0.18</v>
       </c>
       <c r="G151">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="H151">
-        <v>0.95</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4500,25 +4518,25 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>57.96052631578947</v>
+        <v>55.44642857142857</v>
       </c>
       <c r="C152">
         <v>150</v>
       </c>
       <c r="D152">
-        <v>56.55555555555556</v>
+        <v>55.30508474576271</v>
       </c>
       <c r="E152">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F152">
-        <v>0.92</v>
+        <v>0.24</v>
       </c>
       <c r="G152">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="H152">
-        <v>1.02</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4526,25 +4544,25 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>57.8421052631579</v>
+        <v>55.46428571428572</v>
       </c>
       <c r="C153">
         <v>151</v>
       </c>
       <c r="D153">
-        <v>56.84722222222222</v>
+        <v>55.1864406779661</v>
       </c>
       <c r="E153">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F153">
-        <v>0.9</v>
+        <v>0.29</v>
       </c>
       <c r="G153">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="H153">
-        <v>1.06</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4552,25 +4570,25 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>57.81578947368421</v>
+        <v>55.625</v>
       </c>
       <c r="C154">
         <v>152</v>
       </c>
       <c r="D154">
-        <v>56.93055555555556</v>
+        <v>55.28813559322034</v>
       </c>
       <c r="E154">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F154">
-        <v>0.87</v>
+        <v>0.34</v>
       </c>
       <c r="G154">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="H154">
-        <v>1.11</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4578,25 +4596,25 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>57.75</v>
+        <v>55.71428571428572</v>
       </c>
       <c r="C155">
         <v>153</v>
       </c>
       <c r="D155">
-        <v>56.95833333333334</v>
+        <v>55.67796610169491</v>
       </c>
       <c r="E155">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F155">
-        <v>0.82</v>
+        <v>0.37</v>
       </c>
       <c r="G155">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="H155">
-        <v>1.16</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4604,25 +4622,25 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>57.61842105263158</v>
+        <v>55.80357142857143</v>
       </c>
       <c r="C156">
         <v>154</v>
       </c>
       <c r="D156">
-        <v>56.88888888888889</v>
+        <v>55.71186440677966</v>
       </c>
       <c r="E156">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F156">
-        <v>0.75</v>
+        <v>0.39</v>
       </c>
       <c r="G156">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="H156">
-        <v>1.22</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4630,25 +4648,25 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>57.75</v>
+        <v>55.92857142857143</v>
       </c>
       <c r="C157">
         <v>155</v>
       </c>
       <c r="D157">
-        <v>56.95833333333334</v>
+        <v>55.6271186440678</v>
       </c>
       <c r="E157">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F157">
-        <v>0.66</v>
+        <v>0.41</v>
       </c>
       <c r="G157">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="H157">
-        <v>1.28</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4656,25 +4674,25 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>57.80263157894737</v>
+        <v>55.98214285714285</v>
       </c>
       <c r="C158">
         <v>156</v>
       </c>
       <c r="D158">
-        <v>57.04166666666666</v>
+        <v>55.71186440677966</v>
       </c>
       <c r="E158">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F158">
-        <v>0.5600000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="G158">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="H158">
-        <v>1.35</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4682,25 +4700,25 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>57.92105263157895</v>
+        <v>55.94642857142857</v>
       </c>
       <c r="C159">
         <v>157</v>
       </c>
       <c r="D159">
-        <v>57.33333333333334</v>
+        <v>55.89830508474576</v>
       </c>
       <c r="E159">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F159">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="G159">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="H159">
-        <v>1.39</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4708,25 +4726,25 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>57.82894736842105</v>
+        <v>56.07142857142857</v>
       </c>
       <c r="C160">
         <v>158</v>
       </c>
       <c r="D160">
-        <v>57.31944444444444</v>
+        <v>55.89830508474576</v>
       </c>
       <c r="E160">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F160">
-        <v>0.31</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G160">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="H160">
-        <v>1.43</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4734,25 +4752,25 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>57.67105263157895</v>
+        <v>56.10714285714285</v>
       </c>
       <c r="C161">
         <v>159</v>
       </c>
       <c r="D161">
-        <v>57.29166666666666</v>
+        <v>55.59322033898305</v>
       </c>
       <c r="E161">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F161">
-        <v>0.19</v>
+        <v>0.61</v>
       </c>
       <c r="G161">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="H161">
-        <v>1.47</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4760,25 +4778,25 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>57.46052631578947</v>
+        <v>56.17857142857143</v>
       </c>
       <c r="C162">
         <v>160</v>
       </c>
       <c r="D162">
-        <v>57.52777777777778</v>
+        <v>55.57627118644068</v>
       </c>
       <c r="E162">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F162">
-        <v>0.11</v>
+        <v>0.66</v>
       </c>
       <c r="G162">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="H162">
-        <v>1.49</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4786,25 +4804,25 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>57.13157894736842</v>
+        <v>56.05357142857143</v>
       </c>
       <c r="C163">
         <v>161</v>
       </c>
       <c r="D163">
-        <v>57.5</v>
+        <v>55.77966101694916</v>
       </c>
       <c r="E163">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F163">
-        <v>0.06</v>
+        <v>0.72</v>
       </c>
       <c r="G163">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="H163">
-        <v>1.49</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4812,25 +4830,25 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>56.80263157894737</v>
+        <v>56</v>
       </c>
       <c r="C164">
         <v>162</v>
       </c>
       <c r="D164">
-        <v>57.65277777777778</v>
+        <v>55.8135593220339</v>
       </c>
       <c r="E164">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F164">
-        <v>0.04</v>
+        <v>0.78</v>
       </c>
       <c r="G164">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="H164">
-        <v>1.47</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4838,25 +4856,25 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>56.72368421052632</v>
+        <v>56.17857142857143</v>
       </c>
       <c r="C165">
         <v>163</v>
       </c>
       <c r="D165">
-        <v>57.66666666666666</v>
+        <v>55.94915254237288</v>
       </c>
       <c r="E165">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F165">
-        <v>0.04</v>
+        <v>0.85</v>
       </c>
       <c r="G165">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="H165">
-        <v>1.49</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4864,25 +4882,25 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>56.63157894736842</v>
+        <v>56.375</v>
       </c>
       <c r="C166">
         <v>164</v>
       </c>
       <c r="D166">
-        <v>57.79166666666666</v>
+        <v>56.05084745762712</v>
       </c>
       <c r="E166">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F166">
-        <v>0.03</v>
+        <v>0.91</v>
       </c>
       <c r="G166">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="H166">
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4890,25 +4908,25 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>56.51315789473684</v>
+        <v>56.53571428571428</v>
       </c>
       <c r="C167">
         <v>165</v>
       </c>
       <c r="D167">
-        <v>57.81944444444444</v>
+        <v>56.32203389830509</v>
       </c>
       <c r="E167">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F167">
-        <v>0.02</v>
+        <v>0.95</v>
       </c>
       <c r="G167">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="H167">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4916,25 +4934,25 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>56.32894736842105</v>
+        <v>56.78571428571428</v>
       </c>
       <c r="C168">
         <v>166</v>
       </c>
       <c r="D168">
-        <v>57.77777777777778</v>
+        <v>56.52542372881356</v>
       </c>
       <c r="E168">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F168">
-        <v>0.03</v>
+        <v>0.96</v>
       </c>
       <c r="G168">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="H168">
-        <v>1.61</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4942,25 +4960,25 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>56.32894736842105</v>
+        <v>56.73214285714285</v>
       </c>
       <c r="C169">
         <v>167</v>
       </c>
       <c r="D169">
-        <v>57.81944444444444</v>
+        <v>56.57627118644068</v>
       </c>
       <c r="E169">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F169">
-        <v>0.05</v>
+        <v>0.96</v>
       </c>
       <c r="G169">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="H169">
-        <v>1.71</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4968,25 +4986,25 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>56.47368421052632</v>
+        <v>56.75</v>
       </c>
       <c r="C170">
         <v>168</v>
       </c>
       <c r="D170">
-        <v>57.70833333333334</v>
+        <v>56.49152542372882</v>
       </c>
       <c r="E170">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F170">
-        <v>0.07000000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="G170">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="H170">
-        <v>1.84</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4994,25 +5012,25 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>56.56578947368421</v>
+        <v>56.71428571428572</v>
       </c>
       <c r="C171">
         <v>169</v>
       </c>
       <c r="D171">
-        <v>57.52777777777778</v>
+        <v>56.52542372881356</v>
       </c>
       <c r="E171">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F171">
-        <v>0.08</v>
+        <v>0.99</v>
       </c>
       <c r="G171">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="H171">
-        <v>2.01</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5020,25 +5038,25 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>56.61842105263158</v>
+        <v>56.69642857142857</v>
       </c>
       <c r="C172">
         <v>170</v>
       </c>
       <c r="D172">
-        <v>57.44444444444444</v>
+        <v>56.67796610169491</v>
       </c>
       <c r="E172">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F172">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="G172">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="H172">
-        <v>2.21</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5046,25 +5064,25 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>56.63157894736842</v>
+        <v>56.96428571428572</v>
       </c>
       <c r="C173">
         <v>171</v>
       </c>
       <c r="D173">
-        <v>57.90277777777778</v>
+        <v>56.89830508474576</v>
       </c>
       <c r="E173">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F173">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G173">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="H173">
-        <v>2.37</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5072,25 +5090,25 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>56.56578947368421</v>
+        <v>57.07142857142857</v>
       </c>
       <c r="C174">
         <v>172</v>
       </c>
       <c r="D174">
-        <v>58.05555555555556</v>
+        <v>56.98305084745763</v>
       </c>
       <c r="E174">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F174">
-        <v>0.15</v>
+        <v>0.99</v>
       </c>
       <c r="G174">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="H174">
-        <v>2.51</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5098,25 +5116,25 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>56.42105263157895</v>
+        <v>57.01785714285715</v>
       </c>
       <c r="C175">
         <v>173</v>
       </c>
       <c r="D175">
-        <v>58.20833333333334</v>
+        <v>57</v>
       </c>
       <c r="E175">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F175">
-        <v>0.19</v>
+        <v>0.99</v>
       </c>
       <c r="G175">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="H175">
-        <v>2.65</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5124,25 +5142,25 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>56.46052631578947</v>
+        <v>56.85714285714285</v>
       </c>
       <c r="C176">
         <v>174</v>
       </c>
       <c r="D176">
-        <v>58.51388888888889</v>
+        <v>57.05084745762712</v>
       </c>
       <c r="E176">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F176">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G176">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="H176">
-        <v>2.77</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5150,25 +5168,25 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>56.48684210526316</v>
+        <v>56.73214285714285</v>
       </c>
       <c r="C177">
         <v>175</v>
       </c>
       <c r="D177">
-        <v>58.88888888888889</v>
+        <v>57.08474576271186</v>
       </c>
       <c r="E177">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F177">
-        <v>0.28</v>
+        <v>1.03</v>
       </c>
       <c r="G177">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="H177">
-        <v>2.88</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5176,25 +5194,25 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>56.71052631578947</v>
+        <v>56.89285714285715</v>
       </c>
       <c r="C178">
         <v>176</v>
       </c>
       <c r="D178">
-        <v>59.23611111111111</v>
+        <v>57.05084745762712</v>
       </c>
       <c r="E178">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F178">
-        <v>0.29</v>
+        <v>1.04</v>
       </c>
       <c r="G178">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="H178">
-        <v>2.99</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5202,25 +5220,25 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>56.76315789473684</v>
+        <v>56.92857142857143</v>
       </c>
       <c r="C179">
         <v>177</v>
       </c>
       <c r="D179">
-        <v>59.48611111111111</v>
+        <v>57.08474576271186</v>
       </c>
       <c r="E179">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F179">
-        <v>0.31</v>
+        <v>1.07</v>
       </c>
       <c r="G179">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="H179">
-        <v>3.09</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5228,25 +5246,25 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>56.81578947368421</v>
+        <v>56.96428571428572</v>
       </c>
       <c r="C180">
         <v>178</v>
       </c>
       <c r="D180">
-        <v>59.77777777777778</v>
+        <v>57</v>
       </c>
       <c r="E180">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F180">
-        <v>0.31</v>
+        <v>1.13</v>
       </c>
       <c r="G180">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="H180">
-        <v>3.19</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5254,25 +5272,25 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>56.85526315789474</v>
+        <v>56.85714285714285</v>
       </c>
       <c r="C181">
         <v>179</v>
       </c>
       <c r="D181">
-        <v>59.76388888888889</v>
+        <v>57.06779661016949</v>
       </c>
       <c r="E181">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F181">
-        <v>0.33</v>
+        <v>1.2</v>
       </c>
       <c r="G181">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="H181">
-        <v>3.32</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5280,25 +5298,25 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>56.86842105263158</v>
+        <v>57</v>
       </c>
       <c r="C182">
         <v>180</v>
       </c>
       <c r="D182">
-        <v>59.76388888888889</v>
+        <v>57.23728813559322</v>
       </c>
       <c r="E182">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F182">
-        <v>0.36</v>
+        <v>1.26</v>
       </c>
       <c r="G182">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="H182">
-        <v>3.48</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5306,25 +5324,25 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>56.94736842105263</v>
+        <v>56.94642857142857</v>
       </c>
       <c r="C183">
         <v>181</v>
       </c>
       <c r="D183">
-        <v>59.79166666666666</v>
+        <v>57.50847457627118</v>
       </c>
       <c r="E183">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F183">
-        <v>0.41</v>
+        <v>1.34</v>
       </c>
       <c r="G183">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="H183">
-        <v>3.66</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5332,25 +5350,25 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>56.97368421052632</v>
+        <v>57</v>
       </c>
       <c r="C184">
         <v>182</v>
       </c>
       <c r="D184">
-        <v>59.93055555555556</v>
+        <v>57.27118644067797</v>
       </c>
       <c r="E184">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F184">
-        <v>0.49</v>
+        <v>1.42</v>
       </c>
       <c r="G184">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="H184">
-        <v>3.84</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5358,25 +5376,25 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>56.94736842105263</v>
+        <v>57.01785714285715</v>
       </c>
       <c r="C185">
         <v>183</v>
       </c>
       <c r="D185">
-        <v>60.08333333333334</v>
+        <v>56.84745762711864</v>
       </c>
       <c r="E185">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F185">
-        <v>0.58</v>
+        <v>1.49</v>
       </c>
       <c r="G185">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="H185">
-        <v>4</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5384,25 +5402,25 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>56.9078947368421</v>
+        <v>57.05357142857143</v>
       </c>
       <c r="C186">
         <v>184</v>
       </c>
       <c r="D186">
-        <v>60.52777777777778</v>
+        <v>56.94915254237288</v>
       </c>
       <c r="E186">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F186">
-        <v>0.6899999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="G186">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="H186">
-        <v>4.18</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5410,25 +5428,25 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>56.9078947368421</v>
+        <v>57.28571428571428</v>
       </c>
       <c r="C187">
         <v>185</v>
       </c>
       <c r="D187">
-        <v>60.70833333333334</v>
+        <v>57.10169491525424</v>
       </c>
       <c r="E187">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F187">
-        <v>0.8</v>
+        <v>1.71</v>
       </c>
       <c r="G187">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="H187">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5436,25 +5454,25 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>56.88157894736842</v>
+        <v>57.60714285714285</v>
       </c>
       <c r="C188">
         <v>186</v>
       </c>
       <c r="D188">
-        <v>60.94444444444444</v>
+        <v>57.30508474576271</v>
       </c>
       <c r="E188">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F188">
-        <v>0.93</v>
+        <v>1.81</v>
       </c>
       <c r="G188">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="H188">
-        <v>4.67</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5462,25 +5480,25 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>57.03947368421053</v>
+        <v>57.66071428571428</v>
       </c>
       <c r="C189">
         <v>187</v>
       </c>
       <c r="D189">
-        <v>61.30555555555556</v>
+        <v>57.5593220338983</v>
       </c>
       <c r="E189">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F189">
-        <v>1.03</v>
+        <v>1.95</v>
       </c>
       <c r="G189">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="H189">
-        <v>4.94</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5488,25 +5506,25 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>57.23684210526316</v>
+        <v>57.73214285714285</v>
       </c>
       <c r="C190">
         <v>188</v>
       </c>
       <c r="D190">
-        <v>61.56944444444444</v>
+        <v>57.84745762711864</v>
       </c>
       <c r="E190">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F190">
-        <v>1.11</v>
+        <v>2.13</v>
       </c>
       <c r="G190">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="H190">
-        <v>5.23</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5514,25 +5532,25 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>57.5921052631579</v>
+        <v>57.83928571428572</v>
       </c>
       <c r="C191">
         <v>189</v>
       </c>
       <c r="D191">
-        <v>61.86111111111111</v>
+        <v>58.23728813559322</v>
       </c>
       <c r="E191">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F191">
-        <v>1.13</v>
+        <v>2.32</v>
       </c>
       <c r="G191">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="H191">
-        <v>5.57</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5540,25 +5558,25 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>57.82894736842105</v>
+        <v>57.91071428571428</v>
       </c>
       <c r="C192">
         <v>190</v>
       </c>
       <c r="D192">
-        <v>62.01388888888889</v>
+        <v>58.66101694915254</v>
       </c>
       <c r="E192">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F192">
-        <v>1.12</v>
+        <v>2.53</v>
       </c>
       <c r="G192">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="H192">
-        <v>5.98</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5566,25 +5584,25 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>58.02631578947368</v>
+        <v>57.91071428571428</v>
       </c>
       <c r="C193">
         <v>191</v>
       </c>
       <c r="D193">
-        <v>62</v>
+        <v>59.10169491525424</v>
       </c>
       <c r="E193">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F193">
-        <v>1.08</v>
+        <v>2.74</v>
       </c>
       <c r="G193">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="H193">
-        <v>6.44</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5592,25 +5610,25 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>58.1578947368421</v>
+        <v>58.30357142857143</v>
       </c>
       <c r="C194">
         <v>192</v>
       </c>
       <c r="D194">
-        <v>62.59722222222222</v>
+        <v>59.33898305084746</v>
       </c>
       <c r="E194">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F194">
-        <v>1.03</v>
+        <v>2.93</v>
       </c>
       <c r="G194">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="H194">
-        <v>6.92</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5618,25 +5636,25 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>58.21052631578947</v>
+        <v>58.48214285714285</v>
       </c>
       <c r="C195">
         <v>193</v>
       </c>
       <c r="D195">
-        <v>63.30555555555556</v>
+        <v>59.47457627118644</v>
       </c>
       <c r="E195">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F195">
-        <v>0.98</v>
+        <v>3.1</v>
       </c>
       <c r="G195">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="H195">
-        <v>7.4</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5644,25 +5662,25 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>58.36842105263158</v>
+        <v>58.83928571428572</v>
       </c>
       <c r="C196">
         <v>194</v>
       </c>
       <c r="D196">
-        <v>63.97222222222222</v>
+        <v>59.52542372881356</v>
       </c>
       <c r="E196">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F196">
-        <v>0.92</v>
+        <v>3.25</v>
       </c>
       <c r="G196">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="H196">
-        <v>7.9</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5670,25 +5688,25 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>58.25</v>
+        <v>59.26785714285715</v>
       </c>
       <c r="C197">
         <v>195</v>
       </c>
       <c r="D197">
-        <v>64.52777777777777</v>
+        <v>59.4406779661017</v>
       </c>
       <c r="E197">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F197">
-        <v>0.87</v>
+        <v>3.36</v>
       </c>
       <c r="G197">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="H197">
-        <v>8.41</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5696,25 +5714,25 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>58.07894736842105</v>
+        <v>59.73214285714285</v>
       </c>
       <c r="C198">
         <v>196</v>
       </c>
       <c r="D198">
-        <v>64.95833333333333</v>
+        <v>59.52542372881356</v>
       </c>
       <c r="E198">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F198">
-        <v>0.84</v>
+        <v>3.44</v>
       </c>
       <c r="G198">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="H198">
-        <v>8.970000000000001</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5722,25 +5740,25 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>57.88157894736842</v>
+        <v>60.10714285714285</v>
       </c>
       <c r="C199">
         <v>197</v>
       </c>
       <c r="D199">
-        <v>65.80555555555556</v>
+        <v>59.84745762711864</v>
       </c>
       <c r="E199">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F199">
-        <v>0.84</v>
+        <v>3.54</v>
       </c>
       <c r="G199">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="H199">
-        <v>9.539999999999999</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5748,25 +5766,25 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>57.67105263157895</v>
+        <v>60.30357142857143</v>
       </c>
       <c r="C200">
         <v>198</v>
       </c>
       <c r="D200">
-        <v>66.70833333333333</v>
+        <v>60.1864406779661</v>
       </c>
       <c r="E200">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F200">
-        <v>0.86</v>
+        <v>3.67</v>
       </c>
       <c r="G200">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="H200">
-        <v>10.15</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5774,25 +5792,25 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>57.64473684210526</v>
+        <v>60.28571428571428</v>
       </c>
       <c r="C201">
         <v>199</v>
       </c>
       <c r="D201">
-        <v>67.375</v>
+        <v>60.38983050847457</v>
       </c>
       <c r="E201">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F201">
-        <v>0.88</v>
+        <v>3.84</v>
       </c>
       <c r="G201">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="H201">
-        <v>10.81</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5800,25 +5818,25 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>57.5921052631579</v>
+        <v>60.48214285714285</v>
       </c>
       <c r="C202">
         <v>200</v>
       </c>
       <c r="D202">
-        <v>68.19444444444444</v>
+        <v>60.77966101694916</v>
       </c>
       <c r="E202">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F202">
-        <v>0.91</v>
+        <v>4</v>
       </c>
       <c r="G202">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="H202">
-        <v>11.49</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5826,25 +5844,25 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>57.61842105263158</v>
+        <v>60.5</v>
       </c>
       <c r="C203">
         <v>201</v>
       </c>
       <c r="D203">
-        <v>68.88888888888889</v>
+        <v>60.94915254237288</v>
       </c>
       <c r="E203">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F203">
-        <v>0.95</v>
+        <v>4.16</v>
       </c>
       <c r="G203">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="H203">
-        <v>12.2</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5852,25 +5870,25 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>57.6578947368421</v>
+        <v>60.53571428571428</v>
       </c>
       <c r="C204">
         <v>202</v>
       </c>
       <c r="D204">
-        <v>69.70833333333333</v>
+        <v>61.01694915254237</v>
       </c>
       <c r="E204">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F204">
-        <v>0.99</v>
+        <v>4.32</v>
       </c>
       <c r="G204">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="H204">
-        <v>12.89</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5878,25 +5896,25 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>57.63157894736842</v>
+        <v>60.58928571428572</v>
       </c>
       <c r="C205">
         <v>203</v>
       </c>
       <c r="D205">
-        <v>70.47222222222223</v>
+        <v>61.35593220338983</v>
       </c>
       <c r="E205">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F205">
-        <v>1.04</v>
+        <v>4.47</v>
       </c>
       <c r="G205">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="H205">
-        <v>13.62</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5904,25 +5922,25 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>57.73684210526316</v>
+        <v>60.67857142857143</v>
       </c>
       <c r="C206">
         <v>204</v>
       </c>
       <c r="D206">
-        <v>71.44444444444444</v>
+        <v>61.50847457627118</v>
       </c>
       <c r="E206">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F206">
-        <v>1.09</v>
+        <v>4.67</v>
       </c>
       <c r="G206">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="H206">
-        <v>14.4</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5930,25 +5948,25 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>57.86842105263158</v>
+        <v>61.19642857142857</v>
       </c>
       <c r="C207">
         <v>205</v>
       </c>
       <c r="D207">
-        <v>72.51388888888889</v>
+        <v>61.69491525423729</v>
       </c>
       <c r="E207">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F207">
-        <v>1.12</v>
+        <v>4.89</v>
       </c>
       <c r="G207">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="H207">
-        <v>15.23</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5956,25 +5974,25 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>57.9078947368421</v>
+        <v>61.75</v>
       </c>
       <c r="C208">
         <v>206</v>
       </c>
       <c r="D208">
-        <v>73.72222222222223</v>
+        <v>62.05084745762712</v>
       </c>
       <c r="E208">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F208">
-        <v>1.16</v>
+        <v>5.11</v>
       </c>
       <c r="G208">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="H208">
-        <v>16.06</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5982,25 +6000,25 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>57.8421052631579</v>
+        <v>62.28571428571428</v>
       </c>
       <c r="C209">
         <v>207</v>
       </c>
       <c r="D209">
-        <v>75.08333333333333</v>
+        <v>62.5593220338983</v>
       </c>
       <c r="E209">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F209">
-        <v>1.22</v>
+        <v>5.3</v>
       </c>
       <c r="G209">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="H209">
-        <v>16.86</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6008,25 +6026,25 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>57.96052631578947</v>
+        <v>62.375</v>
       </c>
       <c r="C210">
         <v>208</v>
       </c>
       <c r="D210">
-        <v>76.09722222222223</v>
+        <v>63.47457627118644</v>
       </c>
       <c r="E210">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F210">
-        <v>1.31</v>
+        <v>5.52</v>
       </c>
       <c r="G210">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="H210">
-        <v>17.66</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6034,25 +6052,25 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>58.07894736842105</v>
+        <v>62.32142857142857</v>
       </c>
       <c r="C211">
         <v>209</v>
       </c>
       <c r="D211">
-        <v>77.13888888888889</v>
+        <v>63.88135593220339</v>
       </c>
       <c r="E211">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F211">
-        <v>1.41</v>
+        <v>5.78</v>
       </c>
       <c r="G211">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="H211">
-        <v>18.48</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6060,25 +6078,25 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>58.17105263157895</v>
+        <v>62.32142857142857</v>
       </c>
       <c r="C212">
         <v>210</v>
       </c>
       <c r="D212">
-        <v>77.69444444444444</v>
+        <v>64.57627118644068</v>
       </c>
       <c r="E212">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F212">
-        <v>1.55</v>
+        <v>6.06</v>
       </c>
       <c r="G212">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="H212">
-        <v>19.46</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6086,25 +6104,25 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>58.22368421052632</v>
+        <v>62.41071428571428</v>
       </c>
       <c r="C213">
         <v>211</v>
       </c>
       <c r="D213">
-        <v>78.97222222222223</v>
+        <v>65.44067796610169</v>
       </c>
       <c r="E213">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F213">
-        <v>1.7</v>
+        <v>6.37</v>
       </c>
       <c r="G213">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="H213">
-        <v>21.09</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6112,25 +6130,25 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>58.26315789473684</v>
+        <v>62.98214285714285</v>
       </c>
       <c r="C214">
         <v>212</v>
       </c>
       <c r="D214">
-        <v>80.44444444444444</v>
+        <v>66.20338983050847</v>
       </c>
       <c r="E214">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F214">
-        <v>1.88</v>
+        <v>6.68</v>
       </c>
       <c r="G214">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="H214">
-        <v>24.37</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6138,25 +6156,25 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>58.28947368421053</v>
+        <v>63.69642857142857</v>
       </c>
       <c r="C215">
         <v>213</v>
       </c>
       <c r="D215">
-        <v>82.23611111111111</v>
+        <v>67.06779661016949</v>
       </c>
       <c r="E215">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F215">
-        <v>2.09</v>
+        <v>6.98</v>
       </c>
       <c r="G215">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="H215">
-        <v>29.7</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6164,25 +6182,25 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>58.35526315789474</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="C216">
         <v>214</v>
       </c>
       <c r="D216">
-        <v>83.27777777777777</v>
+        <v>67.66101694915254</v>
       </c>
       <c r="E216">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F216">
-        <v>2.32</v>
+        <v>7.31</v>
       </c>
       <c r="G216">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="H216">
-        <v>36.24</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6190,25 +6208,25 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>58.5</v>
+        <v>64.44642857142857</v>
       </c>
       <c r="C217">
         <v>215</v>
       </c>
       <c r="D217">
-        <v>84.40277777777777</v>
+        <v>67.98305084745763</v>
       </c>
       <c r="E217">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F217">
-        <v>2.55</v>
+        <v>7.68</v>
       </c>
       <c r="G217">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="H217">
-        <v>43.68</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6216,25 +6234,25 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>58.98684210526316</v>
+        <v>64.96428571428571</v>
       </c>
       <c r="C218">
         <v>216</v>
       </c>
       <c r="D218">
-        <v>85.40277777777777</v>
+        <v>69.16949152542372</v>
       </c>
       <c r="E218">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F218">
-        <v>2.72</v>
+        <v>8.02</v>
       </c>
       <c r="G218">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="H218">
-        <v>51.81</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6242,25 +6260,25 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>59.31578947368421</v>
+        <v>65.23214285714286</v>
       </c>
       <c r="C219">
         <v>217</v>
       </c>
       <c r="D219">
-        <v>86.69444444444444</v>
+        <v>69.76271186440678</v>
       </c>
       <c r="E219">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F219">
-        <v>2.88</v>
+        <v>8.4</v>
       </c>
       <c r="G219">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="H219">
-        <v>60.17</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6268,25 +6286,25 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>59.73684210526316</v>
+        <v>65.625</v>
       </c>
       <c r="C220">
         <v>218</v>
       </c>
       <c r="D220">
-        <v>89.04166666666667</v>
+        <v>70.79661016949153</v>
       </c>
       <c r="E220">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F220">
-        <v>3.01</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G220">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="H220">
-        <v>68.72</v>
+        <v>14.64</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6294,25 +6312,25 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>60.01315789473684</v>
+        <v>65.96428571428571</v>
       </c>
       <c r="C221">
         <v>219</v>
       </c>
       <c r="D221">
-        <v>97.90277777777777</v>
+        <v>71.91525423728814</v>
       </c>
       <c r="E221">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F221">
-        <v>3.12</v>
+        <v>9.23</v>
       </c>
       <c r="G221">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="H221">
-        <v>76.64</v>
+        <v>15.51</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6320,25 +6338,25 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>60.36842105263158</v>
+        <v>66.51785714285714</v>
       </c>
       <c r="C222">
         <v>220</v>
       </c>
       <c r="D222">
-        <v>118.6111111111111</v>
+        <v>73.15254237288136</v>
       </c>
       <c r="E222">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F222">
-        <v>3.21</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="G222">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="H222">
-        <v>82.77</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6346,25 +6364,25 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>60.72368421052632</v>
+        <v>67.19642857142857</v>
       </c>
       <c r="C223">
         <v>221</v>
       </c>
       <c r="D223">
-        <v>144.1388888888889</v>
+        <v>74.55932203389831</v>
       </c>
       <c r="E223">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F223">
-        <v>3.3</v>
+        <v>10.26</v>
       </c>
       <c r="G223">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="H223">
-        <v>86.76000000000001</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6372,25 +6390,25 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>61.01315789473684</v>
+        <v>68.01785714285714</v>
       </c>
       <c r="C224">
         <v>222</v>
       </c>
       <c r="D224">
-        <v>159.1805555555555</v>
+        <v>76.01694915254237</v>
       </c>
       <c r="E224">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F224">
-        <v>3.41</v>
+        <v>10.84</v>
       </c>
       <c r="G224">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="H224">
-        <v>89.25</v>
+        <v>18.07</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6398,25 +6416,25 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>61.11842105263158</v>
+        <v>68.71428571428571</v>
       </c>
       <c r="C225">
         <v>223</v>
       </c>
       <c r="D225">
-        <v>170.9444444444445</v>
+        <v>76.76271186440678</v>
       </c>
       <c r="E225">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F225">
-        <v>3.54</v>
+        <v>11.47</v>
       </c>
       <c r="G225">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="H225">
-        <v>90.34</v>
+        <v>18.91</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6424,25 +6442,25 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>61.01315789473684</v>
+        <v>68.96428571428571</v>
       </c>
       <c r="C226">
         <v>224</v>
       </c>
       <c r="D226">
-        <v>179.75</v>
+        <v>77.7457627118644</v>
       </c>
       <c r="E226">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F226">
-        <v>3.7</v>
+        <v>12.11</v>
       </c>
       <c r="G226">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="H226">
-        <v>90.37</v>
+        <v>19.81</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6450,25 +6468,25 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>61.13157894736842</v>
+        <v>69.57142857142857</v>
       </c>
       <c r="C227">
         <v>225</v>
       </c>
       <c r="D227">
-        <v>183.8194444444445</v>
+        <v>79.1864406779661</v>
       </c>
       <c r="E227">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F227">
-        <v>3.85</v>
+        <v>12.79</v>
       </c>
       <c r="G227">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="H227">
-        <v>89.48</v>
+        <v>21.36</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6476,25 +6494,25 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>61.22368421052632</v>
+        <v>70.14285714285714</v>
       </c>
       <c r="C228">
         <v>226</v>
       </c>
       <c r="D228">
-        <v>188.3472222222222</v>
+        <v>80.32203389830508</v>
       </c>
       <c r="E228">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F228">
-        <v>3.99</v>
+        <v>13.57</v>
       </c>
       <c r="G228">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="H228">
-        <v>87.41</v>
+        <v>24.65</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6502,25 +6520,25 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>61.30263157894737</v>
+        <v>70.98214285714286</v>
       </c>
       <c r="C229">
         <v>227</v>
       </c>
       <c r="D229">
-        <v>189.9305555555555</v>
+        <v>81.94915254237289</v>
       </c>
       <c r="E229">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F229">
-        <v>4.14</v>
+        <v>14.43</v>
       </c>
       <c r="G229">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="H229">
-        <v>84.25</v>
+        <v>30.14</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6528,25 +6546,25 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>61.44736842105263</v>
+        <v>72.21428571428571</v>
       </c>
       <c r="C230">
         <v>228</v>
       </c>
       <c r="D230">
-        <v>189.9027777777778</v>
+        <v>83.50847457627118</v>
       </c>
       <c r="E230">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F230">
-        <v>4.3</v>
+        <v>15.27</v>
       </c>
       <c r="G230">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="H230">
-        <v>79.69</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6554,25 +6572,25 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>61.78947368421053</v>
+        <v>73.42857142857143</v>
       </c>
       <c r="C231">
         <v>229</v>
       </c>
       <c r="D231">
-        <v>190.4305555555555</v>
+        <v>84.2542372881356</v>
       </c>
       <c r="E231">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F231">
-        <v>4.49</v>
+        <v>16.1</v>
       </c>
       <c r="G231">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="H231">
-        <v>73.34999999999999</v>
+        <v>44.25</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6580,25 +6598,25 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>62.31578947368421</v>
+        <v>74.71428571428571</v>
       </c>
       <c r="C232">
         <v>230</v>
       </c>
       <c r="D232">
-        <v>188.1666666666667</v>
+        <v>85.47457627118644</v>
       </c>
       <c r="E232">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F232">
-        <v>4.67</v>
+        <v>16.91</v>
       </c>
       <c r="G232">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="H232">
-        <v>65.67</v>
+        <v>52.44</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6606,25 +6624,25 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>62.61842105263158</v>
+        <v>75.875</v>
       </c>
       <c r="C233">
         <v>231</v>
       </c>
       <c r="D233">
-        <v>183.5277777777778</v>
+        <v>86.47457627118644</v>
       </c>
       <c r="E233">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F233">
-        <v>4.86</v>
+        <v>17.73</v>
       </c>
       <c r="G233">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="H233">
-        <v>57.52</v>
+        <v>60.85</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6632,25 +6650,25 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>62.78947368421053</v>
+        <v>76.39285714285714</v>
       </c>
       <c r="C234">
         <v>232</v>
       </c>
       <c r="D234">
-        <v>180.1388888888889</v>
+        <v>88.11864406779661</v>
       </c>
       <c r="E234">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F234">
-        <v>5.07</v>
+        <v>18.55</v>
       </c>
       <c r="G234">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="H234">
-        <v>49.4</v>
+        <v>69.54000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6658,25 +6676,25 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>62.89473684210526</v>
+        <v>77.35714285714286</v>
       </c>
       <c r="C235">
         <v>233</v>
       </c>
       <c r="D235">
-        <v>173.4444444444445</v>
+        <v>96.98305084745763</v>
       </c>
       <c r="E235">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F235">
-        <v>5.29</v>
+        <v>19.37</v>
       </c>
       <c r="G235">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="H235">
-        <v>41.83</v>
+        <v>77.56</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6684,25 +6702,25 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>62.85526315789474</v>
+        <v>79.16071428571429</v>
       </c>
       <c r="C236">
         <v>234</v>
       </c>
       <c r="D236">
-        <v>164.3611111111111</v>
+        <v>118.2203389830509</v>
       </c>
       <c r="E236">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F236">
-        <v>5.56</v>
+        <v>20.28</v>
       </c>
       <c r="G236">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="H236">
-        <v>34.99</v>
+        <v>83.77</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6710,25 +6728,25 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>63.03947368421053</v>
+        <v>80.85714285714286</v>
       </c>
       <c r="C237">
         <v>235</v>
       </c>
       <c r="D237">
-        <v>153.1805555555555</v>
+        <v>145.2203389830509</v>
       </c>
       <c r="E237">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F237">
-        <v>5.86</v>
+        <v>21.92</v>
       </c>
       <c r="G237">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="H237">
-        <v>29.04</v>
+        <v>87.67</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6736,25 +6754,25 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>63.32894736842105</v>
+        <v>81.98214285714286</v>
       </c>
       <c r="C238">
         <v>236</v>
       </c>
       <c r="D238">
-        <v>136.9027777777778</v>
+        <v>159.0847457627119</v>
       </c>
       <c r="E238">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F238">
-        <v>6.18</v>
+        <v>25.49</v>
       </c>
       <c r="G238">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="H238">
-        <v>24.41</v>
+        <v>90.15000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6762,25 +6780,25 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>63.93421052631579</v>
+        <v>82.91071428571429</v>
       </c>
       <c r="C239">
         <v>237</v>
       </c>
       <c r="D239">
-        <v>116.8055555555556</v>
+        <v>171.2203389830509</v>
       </c>
       <c r="E239">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F239">
-        <v>6.5</v>
+        <v>31</v>
       </c>
       <c r="G239">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="H239">
-        <v>21.41</v>
+        <v>91.22</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6788,25 +6806,25 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>64.44736842105263</v>
+        <v>84.14285714285714</v>
       </c>
       <c r="C240">
         <v>238</v>
       </c>
       <c r="D240">
-        <v>98.90277777777777</v>
+        <v>179.8474576271186</v>
       </c>
       <c r="E240">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F240">
-        <v>6.84</v>
+        <v>38.07</v>
       </c>
       <c r="G240">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="H240">
-        <v>19.83</v>
+        <v>91.22</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6814,25 +6832,25 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>64.80263157894737</v>
+        <v>85.28571428571429</v>
       </c>
       <c r="C241">
         <v>239</v>
       </c>
       <c r="D241">
-        <v>88.86111111111111</v>
+        <v>183.3728813559322</v>
       </c>
       <c r="E241">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F241">
-        <v>7.19</v>
+        <v>46.25</v>
       </c>
       <c r="G241">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="H241">
-        <v>19.01</v>
+        <v>90.31999999999999</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6840,25 +6858,25 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>65.22368421052632</v>
+        <v>85.83928571428571</v>
       </c>
       <c r="C242">
         <v>240</v>
       </c>
       <c r="D242">
-        <v>85.90277777777777</v>
+        <v>188.2372881355932</v>
       </c>
       <c r="E242">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F242">
-        <v>7.55</v>
+        <v>54.97</v>
       </c>
       <c r="G242">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="H242">
-        <v>18.32</v>
+        <v>88.15000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6866,25 +6884,25 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>65.52631578947368</v>
+        <v>86.82142857142857</v>
       </c>
       <c r="C243">
         <v>241</v>
       </c>
       <c r="D243">
-        <v>85.47222222222223</v>
+        <v>189.4915254237288</v>
       </c>
       <c r="E243">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F243">
-        <v>7.95</v>
+        <v>64.2</v>
       </c>
       <c r="G243">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="H243">
-        <v>17.6</v>
+        <v>84.87</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6892,25 +6910,25 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>65.98684210526316</v>
+        <v>89.60714285714286</v>
       </c>
       <c r="C244">
         <v>242</v>
       </c>
       <c r="D244">
-        <v>84.90277777777777</v>
+        <v>189.6949152542373</v>
       </c>
       <c r="E244">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F244">
-        <v>8.359999999999999</v>
+        <v>73.55</v>
       </c>
       <c r="G244">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="H244">
-        <v>16.85</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6918,25 +6936,25 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>66.46052631578948</v>
+        <v>99.76785714285714</v>
       </c>
       <c r="C245">
         <v>243</v>
       </c>
       <c r="D245">
-        <v>84.05555555555556</v>
+        <v>190.1864406779661</v>
       </c>
       <c r="E245">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F245">
-        <v>8.800000000000001</v>
+        <v>82.27</v>
       </c>
       <c r="G245">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="H245">
-        <v>16.12</v>
+        <v>73.68000000000001</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6944,25 +6962,25 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>67.06578947368421</v>
+        <v>123.0892857142857</v>
       </c>
       <c r="C246">
         <v>244</v>
       </c>
       <c r="D246">
-        <v>83.06944444444444</v>
+        <v>187.6271186440678</v>
       </c>
       <c r="E246">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F246">
-        <v>9.289999999999999</v>
+        <v>89.20999999999999</v>
       </c>
       <c r="G246">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="H246">
-        <v>15.43</v>
+        <v>65.89</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6970,25 +6988,25 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>67.72368421052632</v>
+        <v>146.3928571428571</v>
       </c>
       <c r="C247">
         <v>245</v>
       </c>
       <c r="D247">
-        <v>81.97222222222223</v>
+        <v>183.6271186440678</v>
       </c>
       <c r="E247">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F247">
-        <v>9.82</v>
+        <v>94.17</v>
       </c>
       <c r="G247">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="H247">
-        <v>14.75</v>
+        <v>57.65</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6996,25 +7014,25 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>68.30263157894737</v>
+        <v>165.625</v>
       </c>
       <c r="C248">
         <v>246</v>
       </c>
       <c r="D248">
-        <v>80.58333333333333</v>
+        <v>179.7457627118644</v>
       </c>
       <c r="E248">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F248">
-        <v>10.41</v>
+        <v>97.36</v>
       </c>
       <c r="G248">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="H248">
-        <v>14.09</v>
+        <v>49.46</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7022,25 +7040,25 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>68.85526315789474</v>
+        <v>179.5714285714286</v>
       </c>
       <c r="C249">
         <v>247</v>
       </c>
       <c r="D249">
-        <v>79.29166666666667</v>
+        <v>173.1016949152542</v>
       </c>
       <c r="E249">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F249">
-        <v>11.02</v>
+        <v>99.17</v>
       </c>
       <c r="G249">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="H249">
-        <v>13.46</v>
+        <v>41.88</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7048,25 +7066,25 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>69.5</v>
+        <v>186.3214285714286</v>
       </c>
       <c r="C250">
         <v>248</v>
       </c>
       <c r="D250">
-        <v>77.91666666666667</v>
+        <v>163.135593220339</v>
       </c>
       <c r="E250">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F250">
-        <v>11.64</v>
+        <v>100</v>
       </c>
       <c r="G250">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="H250">
-        <v>12.88</v>
+        <v>35.06</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7074,25 +7092,25 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>70.13157894736842</v>
+        <v>193.1607142857143</v>
       </c>
       <c r="C251">
         <v>249</v>
       </c>
       <c r="D251">
-        <v>77.125</v>
+        <v>151.7627118644068</v>
       </c>
       <c r="E251">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F251">
-        <v>12.29</v>
+        <v>99.68000000000001</v>
       </c>
       <c r="G251">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="H251">
-        <v>12.29</v>
+        <v>29.16</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7100,25 +7118,25 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>70.75</v>
+        <v>197.2857142857143</v>
       </c>
       <c r="C252">
         <v>250</v>
       </c>
       <c r="D252">
-        <v>76.18055555555556</v>
+        <v>135.8305084745763</v>
       </c>
       <c r="E252">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F252">
-        <v>13.04</v>
+        <v>98.59</v>
       </c>
       <c r="G252">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="H252">
-        <v>11.74</v>
+        <v>24.56</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7126,25 +7144,25 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>71.57894736842105</v>
+        <v>200.2142857142857</v>
       </c>
       <c r="C253">
         <v>251</v>
       </c>
       <c r="D253">
-        <v>75.61111111111111</v>
+        <v>115.0508474576271</v>
       </c>
       <c r="E253">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F253">
-        <v>13.84</v>
+        <v>96.42</v>
       </c>
       <c r="G253">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="H253">
-        <v>11.23</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7152,25 +7170,25 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>72.71052631578948</v>
+        <v>203.0892857142857</v>
       </c>
       <c r="C254">
         <v>252</v>
       </c>
       <c r="D254">
-        <v>75.02777777777777</v>
+        <v>97.91525423728814</v>
       </c>
       <c r="E254">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F254">
-        <v>14.64</v>
+        <v>92.77</v>
       </c>
       <c r="G254">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="H254">
-        <v>10.74</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7178,25 +7196,25 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>73.93421052631579</v>
+        <v>203.6071428571429</v>
       </c>
       <c r="C255">
         <v>253</v>
       </c>
       <c r="D255">
-        <v>74.08333333333333</v>
+        <v>88.72881355932203</v>
       </c>
       <c r="E255">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F255">
-        <v>15.45</v>
+        <v>87.72</v>
       </c>
       <c r="G255">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="H255">
-        <v>10.28</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7204,25 +7222,25 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>75.09210526315789</v>
+        <v>202.375</v>
       </c>
       <c r="C256">
         <v>254</v>
       </c>
       <c r="D256">
-        <v>72.86111111111111</v>
+        <v>85.35593220338983</v>
       </c>
       <c r="E256">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F256">
-        <v>16.23</v>
+        <v>80.87</v>
       </c>
       <c r="G256">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="H256">
-        <v>9.890000000000001</v>
+        <v>18.73</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7230,25 +7248,25 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>75.97368421052632</v>
+        <v>200.3571428571429</v>
       </c>
       <c r="C257">
         <v>255</v>
       </c>
       <c r="D257">
-        <v>71.98611111111111</v>
+        <v>85.72881355932203</v>
       </c>
       <c r="E257">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F257">
-        <v>17.03</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="G257">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="H257">
-        <v>9.550000000000001</v>
+        <v>17.97</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7256,25 +7274,25 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>76.75</v>
+        <v>195.9107142857143</v>
       </c>
       <c r="C258">
         <v>256</v>
       </c>
       <c r="D258">
-        <v>71.15277777777777</v>
+        <v>84.55932203389831</v>
       </c>
       <c r="E258">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F258">
-        <v>17.88</v>
+        <v>63.33</v>
       </c>
       <c r="G258">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="H258">
-        <v>9.26</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7282,25 +7300,25 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>77.65789473684211</v>
+        <v>189.4821428571429</v>
       </c>
       <c r="C259">
         <v>257</v>
       </c>
       <c r="D259">
-        <v>70.27777777777777</v>
+        <v>83.83050847457628</v>
       </c>
       <c r="E259">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F259">
-        <v>18.75</v>
+        <v>54.34</v>
       </c>
       <c r="G259">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="H259">
-        <v>8.99</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7308,25 +7326,25 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>79.42105263157895</v>
+        <v>184.6607142857143</v>
       </c>
       <c r="C260">
         <v>258</v>
       </c>
       <c r="D260">
-        <v>69.81944444444444</v>
+        <v>82.84745762711864</v>
       </c>
       <c r="E260">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F260">
-        <v>19.81</v>
+        <v>45.76</v>
       </c>
       <c r="G260">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="H260">
-        <v>8.73</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7334,25 +7352,25 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>80.85526315789474</v>
+        <v>175.2857142857143</v>
       </c>
       <c r="C261">
         <v>259</v>
       </c>
       <c r="D261">
-        <v>69.69444444444444</v>
+        <v>82.01694915254237</v>
       </c>
       <c r="E261">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F261">
-        <v>21.69</v>
+        <v>37.94</v>
       </c>
       <c r="G261">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="H261">
-        <v>8.449999999999999</v>
+        <v>15.09</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7360,25 +7378,25 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>82.09210526315789</v>
+        <v>161.0357142857143</v>
       </c>
       <c r="C262">
         <v>260</v>
       </c>
       <c r="D262">
-        <v>69.27777777777777</v>
+        <v>80.71186440677967</v>
       </c>
       <c r="E262">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F262">
-        <v>25.37</v>
+        <v>31.26</v>
       </c>
       <c r="G262">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="H262">
-        <v>8.220000000000001</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7386,25 +7404,25 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>83.27631578947368</v>
+        <v>145.3928571428571</v>
       </c>
       <c r="C263">
         <v>261</v>
       </c>
       <c r="D263">
-        <v>68.73611111111111</v>
+        <v>79.22033898305085</v>
       </c>
       <c r="E263">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F263">
-        <v>31</v>
+        <v>25.85</v>
       </c>
       <c r="G263">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="H263">
-        <v>8.050000000000001</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7412,25 +7430,25 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>84.23684210526316</v>
+        <v>123.4642857142857</v>
       </c>
       <c r="C264">
         <v>262</v>
       </c>
       <c r="D264">
-        <v>68.38888888888889</v>
+        <v>77.83050847457628</v>
       </c>
       <c r="E264">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F264">
-        <v>38.1</v>
+        <v>22.21</v>
       </c>
       <c r="G264">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="H264">
-        <v>7.92</v>
+        <v>13.17</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7438,19 +7456,25 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>85.25</v>
+        <v>103.4285714285714</v>
       </c>
       <c r="C265">
         <v>263</v>
       </c>
       <c r="D265">
-        <v>68.05555555555556</v>
+        <v>77.06779661016949</v>
       </c>
       <c r="E265">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F265">
-        <v>46.36</v>
+        <v>20.25</v>
+      </c>
+      <c r="G265">
+        <v>274</v>
+      </c>
+      <c r="H265">
+        <v>12.58</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7458,19 +7482,25 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>86.56578947368421</v>
+        <v>90.73214285714286</v>
       </c>
       <c r="C266">
         <v>264</v>
       </c>
       <c r="D266">
-        <v>67.76388888888889</v>
+        <v>76.1864406779661</v>
       </c>
       <c r="E266">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F266">
-        <v>55.14</v>
+        <v>19.32</v>
+      </c>
+      <c r="G266">
+        <v>275</v>
+      </c>
+      <c r="H266">
+        <v>12.02</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7478,19 +7508,25 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>87.78947368421052</v>
+        <v>85.875</v>
       </c>
       <c r="C267">
         <v>265</v>
       </c>
       <c r="D267">
-        <v>67.18055555555556</v>
+        <v>75.52542372881356</v>
       </c>
       <c r="E267">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F267">
-        <v>64.38</v>
+        <v>18.68</v>
+      </c>
+      <c r="G267">
+        <v>276</v>
+      </c>
+      <c r="H267">
+        <v>11.5</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7498,19 +7534,25 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>91.77631578947368</v>
+        <v>85.875</v>
       </c>
       <c r="C268">
         <v>266</v>
       </c>
       <c r="D268">
-        <v>66.69444444444444</v>
+        <v>74.61016949152543</v>
       </c>
       <c r="E268">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F268">
-        <v>73.66</v>
+        <v>17.95</v>
+      </c>
+      <c r="G268">
+        <v>277</v>
+      </c>
+      <c r="H268">
+        <v>11.01</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7518,19 +7560,25 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>102.6184210526316</v>
+        <v>85.16071428571429</v>
       </c>
       <c r="C269">
         <v>267</v>
       </c>
       <c r="D269">
-        <v>66.52777777777777</v>
+        <v>73.64406779661017</v>
       </c>
       <c r="E269">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F269">
-        <v>82.22</v>
+        <v>17.21</v>
+      </c>
+      <c r="G269">
+        <v>278</v>
+      </c>
+      <c r="H269">
+        <v>10.55</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7538,19 +7586,25 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>124.8289473684211</v>
+        <v>84</v>
       </c>
       <c r="C270">
         <v>268</v>
       </c>
       <c r="D270">
-        <v>66.58333333333333</v>
+        <v>72.83050847457628</v>
       </c>
       <c r="E270">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F270">
-        <v>89.09999999999999</v>
+        <v>16.54</v>
+      </c>
+      <c r="G270">
+        <v>279</v>
+      </c>
+      <c r="H270">
+        <v>10.13</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7558,19 +7612,25 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>148.6842105263158</v>
+        <v>83.14285714285714</v>
       </c>
       <c r="C271">
         <v>269</v>
       </c>
       <c r="D271">
-        <v>66.76388888888889</v>
+        <v>71.91525423728814</v>
       </c>
       <c r="E271">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F271">
-        <v>94.01000000000001</v>
+        <v>15.91</v>
+      </c>
+      <c r="G271">
+        <v>280</v>
+      </c>
+      <c r="H271">
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7578,249 +7638,387 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>166.7763157894737</v>
+        <v>81.48214285714286</v>
       </c>
       <c r="C272">
         <v>270</v>
       </c>
       <c r="D272">
-        <v>66.86111111111111</v>
+        <v>70.91525423728814</v>
       </c>
       <c r="E272">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F272">
-        <v>97.26000000000001</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
+        <v>15.35</v>
+      </c>
+      <c r="G272">
+        <v>281</v>
+      </c>
+      <c r="H272">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>271</v>
       </c>
       <c r="B273">
-        <v>181.1578947368421</v>
+        <v>80.89285714285714</v>
       </c>
       <c r="C273">
         <v>271</v>
       </c>
       <c r="D273">
-        <v>66.76388888888889</v>
+        <v>70.30508474576271</v>
       </c>
       <c r="E273">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F273">
-        <v>99.14</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
+        <v>14.76</v>
+      </c>
+      <c r="G273">
+        <v>282</v>
+      </c>
+      <c r="H273">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>272</v>
       </c>
       <c r="B274">
-        <v>188.6052631578947</v>
+        <v>79.92857142857143</v>
+      </c>
+      <c r="C274">
+        <v>272</v>
+      </c>
+      <c r="D274">
+        <v>69.76271186440678</v>
       </c>
       <c r="E274">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F274">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
+        <v>14.11</v>
+      </c>
+      <c r="G274">
+        <v>283</v>
+      </c>
+      <c r="H274">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>273</v>
       </c>
       <c r="B275">
-        <v>195.1447368421053</v>
+        <v>78.55357142857143</v>
+      </c>
+      <c r="C275">
+        <v>273</v>
+      </c>
+      <c r="D275">
+        <v>69.45762711864407</v>
       </c>
       <c r="E275">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F275">
-        <v>99.76000000000001</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
+        <v>13.49</v>
+      </c>
+      <c r="G275">
+        <v>284</v>
+      </c>
+      <c r="H275">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>274</v>
       </c>
       <c r="B276">
-        <v>199.5657894736842</v>
+        <v>77.41071428571429</v>
+      </c>
+      <c r="C276">
+        <v>274</v>
+      </c>
+      <c r="D276">
+        <v>69</v>
       </c>
       <c r="E276">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F276">
-        <v>98.7</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
+        <v>12.91</v>
+      </c>
+      <c r="G276">
+        <v>285</v>
+      </c>
+      <c r="H276">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>275</v>
       </c>
       <c r="B277">
-        <v>202.0131578947368</v>
+        <v>76.69642857142857</v>
+      </c>
+      <c r="C277">
+        <v>275</v>
+      </c>
+      <c r="D277">
+        <v>68.37288135593221</v>
       </c>
       <c r="E277">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F277">
-        <v>96.61</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
+        <v>12.36</v>
+      </c>
+      <c r="G277">
+        <v>286</v>
+      </c>
+      <c r="H277">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>276</v>
       </c>
       <c r="B278">
-        <v>204.7631578947368</v>
+        <v>76.28571428571429</v>
+      </c>
+      <c r="C278">
+        <v>276</v>
+      </c>
+      <c r="D278">
+        <v>68.01694915254237</v>
       </c>
       <c r="E278">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F278">
-        <v>93.14</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
+        <v>11.84</v>
+      </c>
+      <c r="G278">
+        <v>287</v>
+      </c>
+      <c r="H278">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>277</v>
       </c>
       <c r="B279">
-        <v>205.7631578947368</v>
+        <v>75.875</v>
+      </c>
+      <c r="C279">
+        <v>277</v>
+      </c>
+      <c r="D279">
+        <v>67.83050847457628</v>
       </c>
       <c r="E279">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F279">
-        <v>88.26000000000001</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
+        <v>11.32</v>
+      </c>
+      <c r="G279">
+        <v>288</v>
+      </c>
+      <c r="H279">
+        <v>8.039999999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>278</v>
       </c>
       <c r="B280">
-        <v>204.5526315789474</v>
+        <v>75.03571428571429</v>
+      </c>
+      <c r="C280">
+        <v>278</v>
+      </c>
+      <c r="D280">
+        <v>67.44067796610169</v>
       </c>
       <c r="E280">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F280">
-        <v>81.59999999999999</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>279</v>
       </c>
       <c r="B281">
-        <v>202.9342105263158</v>
+        <v>74.01785714285714</v>
+      </c>
+      <c r="C281">
+        <v>279</v>
+      </c>
+      <c r="D281">
+        <v>66.94915254237289</v>
       </c>
       <c r="E281">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F281">
-        <v>73.27</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>280</v>
       </c>
       <c r="B282">
-        <v>198.6315789473684</v>
+        <v>72.51785714285714</v>
+      </c>
+      <c r="C282">
+        <v>280</v>
+      </c>
+      <c r="D282">
+        <v>66.66101694915254</v>
       </c>
       <c r="E282">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F282">
-        <v>64.11</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
+        <v>10.05</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>281</v>
       </c>
       <c r="B283">
-        <v>192.3815789473684</v>
+        <v>71.42857142857143</v>
+      </c>
+      <c r="C283">
+        <v>281</v>
+      </c>
+      <c r="D283">
+        <v>66.42372881355932</v>
       </c>
       <c r="E283">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F283">
-        <v>55.02</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>282</v>
       </c>
       <c r="B284">
-        <v>187.1842105263158</v>
+        <v>70.67857142857143</v>
+      </c>
+      <c r="C284">
+        <v>282</v>
+      </c>
+      <c r="D284">
+        <v>66.38983050847457</v>
       </c>
       <c r="E284">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F284">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>283</v>
       </c>
       <c r="B285">
-        <v>177.7368421052632</v>
+        <v>70.41071428571429</v>
+      </c>
+      <c r="C285">
+        <v>283</v>
+      </c>
+      <c r="D285">
+        <v>66.54237288135593</v>
       </c>
       <c r="E285">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F285">
-        <v>38.34</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>284</v>
       </c>
       <c r="B286">
-        <v>164.4473684210526</v>
+        <v>70.30357142857143</v>
+      </c>
+      <c r="C286">
+        <v>284</v>
+      </c>
+      <c r="D286">
+        <v>66.64406779661017</v>
       </c>
       <c r="E286">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F286">
-        <v>31.42</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>285</v>
       </c>
       <c r="B287">
-        <v>149.1052631578947</v>
+        <v>69.82142857142857</v>
+      </c>
+      <c r="C287">
+        <v>285</v>
+      </c>
+      <c r="D287">
+        <v>66.57627118644068</v>
       </c>
       <c r="E287">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F287">
-        <v>25.77</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>286</v>
       </c>
       <c r="B288">
-        <v>127.1710526315789</v>
+        <v>69.21428571428571</v>
+      </c>
+      <c r="C288">
+        <v>286</v>
+      </c>
+      <c r="D288">
+        <v>66.42372881355932</v>
       </c>
       <c r="E288">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F288">
-        <v>21.84</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7828,13 +8026,13 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>106.1710526315789</v>
+        <v>68.94642857142857</v>
       </c>
       <c r="E289">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F289">
-        <v>19.69</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7842,13 +8040,13 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>92.27631578947368</v>
+        <v>68.76785714285714</v>
       </c>
       <c r="E290">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F290">
-        <v>18.65</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7856,13 +8054,13 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>86.76315789473684</v>
+        <v>68.53571428571429</v>
       </c>
       <c r="E291">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F291">
-        <v>17.97</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7870,13 +8068,13 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>85.88157894736842</v>
+        <v>68.39285714285714</v>
       </c>
       <c r="E292">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F292">
-        <v>17.27</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7884,13 +8082,13 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>85.27631578947368</v>
+        <v>68.30357142857143</v>
       </c>
       <c r="E293">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F293">
-        <v>16.55</v>
+        <v>8.449999999999999</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7898,13 +8096,13 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>84.01315789473684</v>
+        <v>68.10714285714286</v>
       </c>
       <c r="E294">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F294">
-        <v>15.88</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7912,13 +8110,13 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>83.5</v>
+        <v>67.89285714285714</v>
       </c>
       <c r="E295">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F295">
-        <v>15.22</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7926,13 +8124,13 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>81.51315789473684</v>
+        <v>67.80357142857143</v>
       </c>
       <c r="E296">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F296">
-        <v>14.69</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7940,13 +8138,13 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>81.13157894736842</v>
+        <v>67.875</v>
       </c>
       <c r="E297">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F297">
-        <v>14.07</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7954,13 +8152,13 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>80.23684210526316</v>
+        <v>67.55357142857143</v>
       </c>
       <c r="E298">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F298">
-        <v>13.43</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7968,13 +8166,13 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>78.86842105263158</v>
+        <v>67.32142857142857</v>
       </c>
       <c r="E299">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F299">
-        <v>12.82</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7982,13 +8180,13 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>77.75</v>
+        <v>67.30357142857143</v>
       </c>
       <c r="E300">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F300">
-        <v>12.23</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7996,13 +8194,13 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>76.92105263157895</v>
+        <v>67.26785714285714</v>
       </c>
       <c r="E301">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F301">
-        <v>11.69</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -8010,13 +8208,13 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>76.22368421052632</v>
+        <v>67.44642857142857</v>
       </c>
       <c r="E302">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F302">
-        <v>11.19</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -8024,13 +8222,13 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>75.89473684210526</v>
+        <v>67.55357142857143</v>
       </c>
       <c r="E303">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F303">
-        <v>10.69</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -8038,365 +8236,85 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>75.25</v>
+        <v>67.35714285714286</v>
       </c>
       <c r="E304">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F304">
-        <v>10.18</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
       <c r="A305">
         <v>303</v>
       </c>
       <c r="B305">
-        <v>74.02631578947368</v>
-      </c>
-      <c r="E305">
-        <v>303</v>
-      </c>
-      <c r="F305">
-        <v>9.76</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
+        <v>67.07142857142857</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
       <c r="A306">
         <v>304</v>
       </c>
       <c r="B306">
-        <v>72.69736842105263</v>
-      </c>
-      <c r="E306">
-        <v>304</v>
-      </c>
-      <c r="F306">
-        <v>9.41</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
+        <v>67.08928571428571</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
       <c r="A307">
         <v>305</v>
       </c>
       <c r="B307">
-        <v>71.81578947368421</v>
-      </c>
-      <c r="E307">
-        <v>305</v>
-      </c>
-      <c r="F307">
-        <v>9.130000000000001</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
+        <v>67.19642857142857</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
       <c r="A308">
         <v>306</v>
       </c>
       <c r="B308">
-        <v>70.92105263157895</v>
-      </c>
-      <c r="E308">
-        <v>306</v>
-      </c>
-      <c r="F308">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
+        <v>67.32142857142857</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
       <c r="A309">
         <v>307</v>
       </c>
       <c r="B309">
-        <v>70.64473684210526</v>
-      </c>
-      <c r="E309">
-        <v>307</v>
-      </c>
-      <c r="F309">
-        <v>8.68</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
+        <v>67.30357142857143</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
       <c r="A310">
         <v>308</v>
       </c>
       <c r="B310">
-        <v>70.46052631578948</v>
-      </c>
-      <c r="E310">
-        <v>308</v>
-      </c>
-      <c r="F310">
-        <v>8.49</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6">
+        <v>67.28571428571429</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
       <c r="A311">
         <v>309</v>
       </c>
       <c r="B311">
-        <v>70</v>
-      </c>
-      <c r="E311">
-        <v>309</v>
-      </c>
-      <c r="F311">
-        <v>8.33</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
+        <v>67.26785714285714</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
       <c r="A312">
         <v>310</v>
       </c>
       <c r="B312">
-        <v>69.40789473684211</v>
-      </c>
-      <c r="E312">
-        <v>310</v>
-      </c>
-      <c r="F312">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
+        <v>67.10714285714286</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
       <c r="A313">
         <v>311</v>
       </c>
       <c r="B313">
-        <v>69.09210526315789</v>
-      </c>
-      <c r="E313">
-        <v>311</v>
-      </c>
-      <c r="F313">
-        <v>8.08</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
-      <c r="A314">
-        <v>312</v>
-      </c>
-      <c r="B314">
-        <v>68.69736842105263</v>
-      </c>
-      <c r="E314">
-        <v>312</v>
-      </c>
-      <c r="F314">
-        <v>7.98</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
-      <c r="A315">
-        <v>313</v>
-      </c>
-      <c r="B315">
-        <v>68.52631578947368</v>
-      </c>
-      <c r="E315">
-        <v>313</v>
-      </c>
-      <c r="F315">
-        <v>7.89</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
-      <c r="A316">
-        <v>314</v>
-      </c>
-      <c r="B316">
-        <v>68.21052631578948</v>
-      </c>
-      <c r="E316">
-        <v>314</v>
-      </c>
-      <c r="F316">
-        <v>7.82</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
-      <c r="A317">
-        <v>315</v>
-      </c>
-      <c r="B317">
-        <v>68.13157894736842</v>
-      </c>
-      <c r="E317">
-        <v>315</v>
-      </c>
-      <c r="F317">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
-      <c r="A318">
-        <v>316</v>
-      </c>
-      <c r="B318">
-        <v>68.19736842105263</v>
-      </c>
-      <c r="E318">
-        <v>316</v>
-      </c>
-      <c r="F318">
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
-      <c r="A319">
-        <v>317</v>
-      </c>
-      <c r="B319">
-        <v>68.14473684210526</v>
-      </c>
-      <c r="E319">
-        <v>317</v>
-      </c>
-      <c r="F319">
-        <v>7.63</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
-      <c r="A320">
-        <v>318</v>
-      </c>
-      <c r="B320">
-        <v>67.90789473684211</v>
-      </c>
-      <c r="E320">
-        <v>318</v>
-      </c>
-      <c r="F320">
-        <v>7.59</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
-      <c r="A321">
-        <v>319</v>
-      </c>
-      <c r="B321">
-        <v>67.71052631578948</v>
-      </c>
-      <c r="E321">
-        <v>319</v>
-      </c>
-      <c r="F321">
-        <v>7.58</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
-      <c r="A322">
-        <v>320</v>
-      </c>
-      <c r="B322">
-        <v>67.57894736842105</v>
-      </c>
-      <c r="E322">
-        <v>320</v>
-      </c>
-      <c r="F322">
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
-      <c r="A323">
-        <v>321</v>
-      </c>
-      <c r="B323">
-        <v>67.46052631578948</v>
-      </c>
-      <c r="E323">
-        <v>321</v>
-      </c>
-      <c r="F323">
-        <v>7.55</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6">
-      <c r="A324">
-        <v>322</v>
-      </c>
-      <c r="B324">
-        <v>67.32894736842105</v>
-      </c>
-      <c r="E324">
-        <v>322</v>
-      </c>
-      <c r="F324">
-        <v>7.55</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6">
-      <c r="A325">
-        <v>323</v>
-      </c>
-      <c r="B325">
-        <v>67.38157894736842</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6">
-      <c r="A326">
-        <v>324</v>
-      </c>
-      <c r="B326">
-        <v>67.46052631578948</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6">
-      <c r="A327">
-        <v>325</v>
-      </c>
-      <c r="B327">
-        <v>67.47368421052632</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
-      <c r="A328">
-        <v>326</v>
-      </c>
-      <c r="B328">
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6">
-      <c r="A329">
-        <v>327</v>
-      </c>
-      <c r="B329">
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
-      <c r="A330">
-        <v>328</v>
-      </c>
-      <c r="B330">
-        <v>67.35526315789474</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
-      <c r="A331">
-        <v>329</v>
-      </c>
-      <c r="B331">
-        <v>67.35526315789474</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
-      <c r="A332">
-        <v>330</v>
-      </c>
-      <c r="B332">
-        <v>67.36842105263158</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
-      <c r="A333">
-        <v>331</v>
-      </c>
-      <c r="B333">
-        <v>67.32894736842105</v>
+        <v>66.92857142857143</v>
       </c>
     </row>
   </sheetData>
